--- a/Projects/GSKSG/Data/template.xlsx
+++ b/Projects/GSKSG/Data/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Pharmacy" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Pricing Min -Max'!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="312">
   <si>
     <t xml:space="preserve">1st level</t>
   </si>
@@ -793,58 +793,58 @@
     <t xml:space="preserve">Panadol Extra with Optizorb 20s</t>
   </si>
   <si>
+    <t xml:space="preserve">Panadol Regular with Optizorb 20s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Cough and Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Cold Relief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Actifast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Extend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Menstrual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Children Susp 1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Hot Remedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Children Susp 6+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Sinus Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Minicaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Children Chewable 24s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Soluble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Extra with Optizorb 120s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Regular with Optizorb 120s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Toothpaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensodyne Repair &amp; Protect 100g</t>
+  </si>
+  <si>
     <t xml:space="preserve">ü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Regular with Optizorb 20s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Cough and Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Cold Relief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Actifast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Extend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Menstrual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Children Susp 1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Hot Remedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Children Susp 6+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Sinus Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Minicaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Children Chewable 24s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Soluble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Extra with Optizorb 120s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panadol Regular with Optizorb 120s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Toothpaste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensodyne Repair &amp; Protect 100g</t>
   </si>
   <si>
     <t xml:space="preserve">Sensodyne Repair &amp; Protect Extra Fresh 100g</t>
@@ -1163,15 +1163,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="D\-MMM\-YY"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="[$SGD]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
+    <numFmt numFmtId="169" formatCode="0"/>
+    <numFmt numFmtId="170" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1343,10 +1344,18 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF4472C4"/>
+      <name val="Akkadian"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Wingdings"/>
+      <name val="Akkadian"/>
       <family val="0"/>
-      <charset val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1357,25 +1366,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF4472C4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Akkadian"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Wingdings"/>
+      <family val="0"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1709,7 +1717,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="150">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2150,7 +2158,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2158,40 +2194,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2210,19 +2222,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2242,51 +2270,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2362,7 +2390,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -2375,7 +2403,7 @@
   </sheetPr>
   <dimension ref="1:32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2389,11 +2417,11 @@
     <col collapsed="false" hidden="false" max="13" min="11" style="5" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="5" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="15" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="5" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="5" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="27" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="13.3886639676113"/>
@@ -15400,23 +15428,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="35" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="37" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="38" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="13" style="38" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="73.4817813765182"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="23" min="13" style="38" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="74.1255060728745"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -16375,28 +16403,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="37" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="38" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="38" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="38" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="38" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="38" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="38" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="38" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="38" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="73.4817813765182"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="38" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="38" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="38" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="38" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="38" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="38" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="38" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="74.1255060728745"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -16992,9 +17020,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17142,8 +17170,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17254,10 +17282,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
@@ -17358,18 +17386,18 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17537,251 +17565,255 @@
       <c r="C5" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K5" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P5" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R5" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S5" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T5" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U5" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="W5" s="113"/>
+      <c r="D5" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="115"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="107" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O6" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P6" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q6" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R6" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S6" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T6" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U6" s="112" t="s">
-        <v>191</v>
+      <c r="D6" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>193</v>
+      <c r="B7" s="116" t="s">
+        <v>192</v>
       </c>
       <c r="C7" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="115" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O7" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P7" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q7" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R7" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S7" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T7" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U7" s="112" t="s">
-        <v>191</v>
+      <c r="D7" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="114" t="s">
-        <v>194</v>
+      <c r="B8" s="116" t="s">
+        <v>193</v>
       </c>
       <c r="C8" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="115" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="115" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O8" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P8" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q8" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R8" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S8" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T8" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U8" s="112" t="s">
-        <v>191</v>
+      <c r="D8" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17789,60 +17821,64 @@
         <v>5</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J9" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N9" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O9" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P9" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q9" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R9" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S9" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T9" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U9" s="112" t="s">
-        <v>191</v>
+      <c r="D9" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17850,58 +17886,64 @@
         <v>6</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N10" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O10" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P10" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q10" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R10" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S10" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U10" s="112" t="s">
-        <v>191</v>
+      <c r="D10" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17909,58 +17951,64 @@
         <v>7</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N11" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O11" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P11" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q11" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R11" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S11" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T11" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U11" s="112" t="s">
-        <v>191</v>
+      <c r="D11" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17968,1302 +18016,1482 @@
         <v>8</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M12" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N12" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O12" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P12" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q12" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R12" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S12" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T12" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U12" s="112" t="s">
-        <v>191</v>
+      <c r="D12" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="107" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="115" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M13" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N13" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O13" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P13" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q13" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R13" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S13" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T13" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U13" s="112" t="s">
-        <v>191</v>
+      <c r="D13" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="114" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="107" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M14" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N14" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O14" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P14" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R14" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S14" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T14" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U14" s="120"/>
+      <c r="D14" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="119" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="107" t="n">
         <v>11</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M15" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N15" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P15" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q15" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="R15" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S15" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T15" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U15" s="112"/>
+      <c r="D15" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="119" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="107" t="n">
         <v>12</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P16" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
+      <c r="D16" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="119" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="107" t="n">
         <v>13</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M17" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P17" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S17" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
+        <v>202</v>
+      </c>
+      <c r="C17" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="119" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="107" t="n">
         <v>14</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P18" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
+      <c r="D18" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="119" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="107" t="n">
         <v>15</v>
       </c>
       <c r="B19" s="108" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M19" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P19" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
+        <v>204</v>
+      </c>
+      <c r="C19" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="119" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="107" t="n">
         <v>16</v>
       </c>
       <c r="B20" s="108" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="M20" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="P20" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
+        <v>205</v>
+      </c>
+      <c r="C20" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="119" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="103"/>
-      <c r="C21" s="121" t="n">
+      <c r="C21" s="122" t="n">
         <f aca="false">COUNTA(C5:C20)</f>
         <v>14</v>
       </c>
-      <c r="D21" s="122" t="n">
+      <c r="D21" s="123" t="n">
         <f aca="false">COUNTA(D5:D20)</f>
-        <v>11</v>
-      </c>
-      <c r="E21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" s="124" t="n">
         <f aca="false">COUNTA(E5:E20)</f>
-        <v>9</v>
-      </c>
-      <c r="F21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" s="124" t="n">
         <f aca="false">COUNTA(F5:F20)</f>
-        <v>11</v>
-      </c>
-      <c r="G21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="G21" s="124" t="n">
         <f aca="false">COUNTA(G5:G20)</f>
-        <v>9</v>
-      </c>
-      <c r="H21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" s="124" t="n">
         <f aca="false">COUNTA(H5:H20)</f>
-        <v>5</v>
-      </c>
-      <c r="I21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" s="124" t="n">
         <f aca="false">COUNTA(I5:I20)</f>
-        <v>6</v>
-      </c>
-      <c r="J21" s="124" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" s="125" t="n">
         <f aca="false">COUNTA(J5:J20)</f>
-        <v>5</v>
-      </c>
-      <c r="K21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="K21" s="124" t="n">
         <f aca="false">COUNTA(K5:K20)</f>
-        <v>2</v>
-      </c>
-      <c r="L21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="L21" s="124" t="n">
         <f aca="false">COUNTA(L5:L20)</f>
         <v>16</v>
       </c>
-      <c r="M21" s="123" t="n">
+      <c r="M21" s="124" t="n">
         <f aca="false">COUNTA(M5:M20)</f>
         <v>16</v>
       </c>
-      <c r="N21" s="123" t="n">
+      <c r="N21" s="124" t="n">
         <f aca="false">COUNTA(N5:N20)</f>
-        <v>11</v>
-      </c>
-      <c r="O21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="O21" s="124" t="n">
         <f aca="false">COUNTA(O5:O20)</f>
         <v>16</v>
       </c>
-      <c r="P21" s="123" t="n">
+      <c r="P21" s="124" t="n">
         <f aca="false">COUNTA(P5:P20)</f>
         <v>16</v>
       </c>
-      <c r="Q21" s="123" t="n">
+      <c r="Q21" s="124" t="n">
         <f aca="false">COUNTA(Q5:Q20)</f>
-        <v>11</v>
-      </c>
-      <c r="R21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="R21" s="124" t="n">
         <f aca="false">COUNTA(R5:R20)</f>
-        <v>12</v>
-      </c>
-      <c r="S21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="S21" s="124" t="n">
         <f aca="false">COUNTA(S5:S20)</f>
-        <v>12</v>
-      </c>
-      <c r="T21" s="123" t="n">
+        <v>16</v>
+      </c>
+      <c r="T21" s="124" t="n">
         <f aca="false">COUNTA(T5:T20)</f>
-        <v>11</v>
-      </c>
-      <c r="U21" s="124" t="n">
+        <v>16</v>
+      </c>
+      <c r="U21" s="125" t="n">
         <f aca="false">COUNTA(U5:U20)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="103"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
     </row>
     <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="103"/>
       <c r="B23" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
+        <v>206</v>
+      </c>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="114" t="s">
-        <v>208</v>
+      <c r="B24" s="116" t="s">
+        <v>207</v>
       </c>
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G24" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H24" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="I24" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J24" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K24" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="N24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T24" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U24" s="112" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="K24" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T24" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U24" s="128" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="103" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="118"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="109"/>
       <c r="E25" s="109"/>
       <c r="F25" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G25" s="109"/>
-      <c r="H25" s="118"/>
+      <c r="H25" s="130"/>
       <c r="I25" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J25" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K25" s="119"/>
-      <c r="L25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="N25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T25" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U25" s="112" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="K25" s="132"/>
+      <c r="L25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T25" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U25" s="128" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="118"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="109"/>
       <c r="E26" s="109"/>
       <c r="F26" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G26" s="109"/>
-      <c r="H26" s="118"/>
+      <c r="H26" s="130"/>
       <c r="I26" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J26" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K26" s="119"/>
-      <c r="L26" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="N26" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S26" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T26" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U26" s="112" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="K26" s="132"/>
+      <c r="L26" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N26" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S26" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T26" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U26" s="128" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="103" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="116" t="s">
         <v>211</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="118"/>
+        <v>208</v>
+      </c>
+      <c r="E27" s="130"/>
       <c r="F27" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G27" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H27" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="I27" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J27" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K27" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
+        <v>208</v>
+      </c>
+      <c r="K27" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="103" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="116" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="118"/>
+        <v>208</v>
+      </c>
+      <c r="E28" s="130"/>
       <c r="F28" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G28" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H28" s="109"/>
       <c r="I28" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J28" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K28" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
+        <v>208</v>
+      </c>
+      <c r="K28" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="103" t="n">
         <v>6</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="116" t="s">
         <v>213</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D29" s="109"/>
-      <c r="E29" s="118"/>
+      <c r="E29" s="130"/>
       <c r="F29" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H29" s="109"/>
       <c r="I29" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J29" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K29" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="127"/>
+        <v>208</v>
+      </c>
+      <c r="K29" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="129"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="103" t="n">
         <v>7</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="116" t="s">
         <v>214</v>
       </c>
       <c r="C30" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="118"/>
+        <v>208</v>
+      </c>
+      <c r="E30" s="130"/>
       <c r="F30" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G30" s="109"/>
       <c r="H30" s="109"/>
       <c r="I30" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J30" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M30" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N30" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O30" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S30" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T30" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U30" s="127" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="K30" s="131"/>
+      <c r="L30" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O30" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S30" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T30" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U30" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="103" t="n">
         <v>8</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
       <c r="F31" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O31" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S31" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T31" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U31" s="127" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M31" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N31" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S31" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T31" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U31" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="103" t="n">
         <v>9</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="116" t="s">
         <v>216</v>
       </c>
       <c r="C32" s="109"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="109"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
       <c r="I32" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J32" s="118"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M32" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N32" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O32" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P32" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q32" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R32" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S32" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T32" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U32" s="127" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="J32" s="130"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U32" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="103" t="n">
         <v>10</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="116" t="s">
         <v>217</v>
       </c>
       <c r="C33" s="109"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="109"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
       <c r="I33" s="109"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M33" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N33" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S33" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T33" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U33" s="127" t="s">
-        <v>191</v>
+      <c r="J33" s="130"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N33" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O33" s="128"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S33" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T33" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U33" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="116" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="109"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="109"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
       <c r="I34" s="109"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M34" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N34" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O34" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P34" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q34" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R34" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S34" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T34" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U34" s="127" t="s">
-        <v>191</v>
+      <c r="J34" s="130"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O34" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P34" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q34" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R34" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S34" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T34" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U34" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="103" t="n">
         <v>12</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="N35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U35" s="127" t="s">
-        <v>191</v>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T35" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U35" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="103" t="n">
         <v>13</v>
       </c>
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="N36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T36" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U36" s="112" t="s">
-        <v>191</v>
+      <c r="C36" s="132"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T36" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U36" s="128" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="103" t="n">
         <v>14</v>
       </c>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="133" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="N37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T37" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U37" s="112" t="s">
-        <v>191</v>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T37" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U37" s="128" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="103" t="n">
         <v>15</v>
       </c>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M38" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="N38" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S38" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T38" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U38" s="112" t="s">
-        <v>191</v>
+      <c r="C38" s="134"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O38" s="136"/>
+      <c r="P38" s="136"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S38" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T38" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U38" s="128" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="114"/>
-      <c r="C39" s="121" t="n">
+      <c r="B39" s="116"/>
+      <c r="C39" s="122" t="n">
         <f aca="false">COUNTA(C24:C35)</f>
         <v>4</v>
       </c>
-      <c r="D39" s="121" t="n">
+      <c r="D39" s="122" t="n">
         <f aca="false">COUNTA(D24:D35)</f>
         <v>3</v>
       </c>
-      <c r="E39" s="121" t="n">
+      <c r="E39" s="122" t="n">
         <f aca="false">COUNTA(E24:E35)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="124" t="n">
+      <c r="F39" s="125" t="n">
         <f aca="false">COUNTA(F24:F35)</f>
         <v>8</v>
       </c>
-      <c r="G39" s="121" t="n">
+      <c r="G39" s="122" t="n">
         <f aca="false">COUNTA(G24:G35)</f>
         <v>4</v>
       </c>
-      <c r="H39" s="121" t="n">
+      <c r="H39" s="122" t="n">
         <f aca="false">COUNTA(H24:H35)</f>
         <v>2</v>
       </c>
-      <c r="I39" s="121" t="n">
+      <c r="I39" s="122" t="n">
         <f aca="false">COUNTA(I24:I35)</f>
         <v>8</v>
       </c>
-      <c r="J39" s="121" t="n">
+      <c r="J39" s="122" t="n">
         <f aca="false">COUNTA(J24:J35)</f>
         <v>7</v>
       </c>
-      <c r="K39" s="124" t="n">
+      <c r="K39" s="125" t="n">
         <f aca="false">COUNTA(K24:K35)</f>
         <v>4</v>
       </c>
-      <c r="L39" s="121" t="n">
+      <c r="L39" s="122" t="n">
         <f aca="false">COUNTA(L24:L35)</f>
         <v>9</v>
       </c>
-      <c r="M39" s="123" t="n">
+      <c r="M39" s="124" t="n">
         <f aca="false">COUNTA(M24:M35)</f>
         <v>9</v>
       </c>
-      <c r="N39" s="124" t="n">
+      <c r="N39" s="125" t="n">
         <f aca="false">COUNTA(N24:N35)</f>
         <v>9</v>
       </c>
-      <c r="O39" s="121" t="n">
+      <c r="O39" s="122" t="n">
         <f aca="false">COUNTA(O24:O35)</f>
         <v>7</v>
       </c>
-      <c r="P39" s="123" t="n">
+      <c r="P39" s="124" t="n">
         <f aca="false">COUNTA(P24:P35)</f>
         <v>5</v>
       </c>
-      <c r="Q39" s="124" t="n">
+      <c r="Q39" s="125" t="n">
         <f aca="false">COUNTA(Q24:Q35)</f>
         <v>5</v>
       </c>
-      <c r="R39" s="121" t="n">
+      <c r="R39" s="122" t="n">
         <f aca="false">COUNTA(R24:R35)</f>
         <v>9</v>
       </c>
-      <c r="S39" s="121" t="n">
+      <c r="S39" s="122" t="n">
         <f aca="false">COUNTA(S24:S35)</f>
         <v>9</v>
       </c>
-      <c r="T39" s="121" t="n">
+      <c r="T39" s="122" t="n">
         <f aca="false">COUNTA(T24:T35)</f>
         <v>9</v>
       </c>
-      <c r="U39" s="124" t="n">
+      <c r="U39" s="125" t="n">
         <f aca="false">COUNTA(U24:U35)</f>
         <v>9</v>
       </c>
@@ -19300,61 +19528,61 @@
         <v>224</v>
       </c>
       <c r="C41" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D41" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="110" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="E41" s="131" t="s">
+        <v>208</v>
       </c>
       <c r="F41" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G41" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H41" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="I41" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J41" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L41" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M41" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N41" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O41" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P41" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q41" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R41" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S41" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T41" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U41" s="127" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="K41" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M41" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N41" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O41" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P41" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q41" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R41" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S41" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T41" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U41" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19365,61 +19593,61 @@
         <v>225</v>
       </c>
       <c r="C42" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D42" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="110" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="E42" s="131" t="s">
+        <v>208</v>
       </c>
       <c r="F42" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G42" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H42" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="I42" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J42" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L42" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M42" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N42" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O42" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P42" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q42" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R42" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S42" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T42" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U42" s="127" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="K42" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N42" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O42" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P42" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q42" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R42" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S42" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T42" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U42" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19430,49 +19658,49 @@
         <v>226</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D43" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="119"/>
+        <v>208</v>
+      </c>
+      <c r="E43" s="132"/>
       <c r="F43" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M43" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T43" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U43" s="127" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M43" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T43" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U43" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19482,168 +19710,168 @@
       <c r="B44" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="133"/>
-      <c r="F44" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="M44" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="N44" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="O44" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="P44" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q44" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="R44" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="S44" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="T44" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="U44" s="127" t="s">
-        <v>191</v>
+      <c r="C44" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="138"/>
+      <c r="F44" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M44" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="N44" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="O44" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="P44" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q44" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="R44" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="S44" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="T44" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="U44" s="129" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="103"/>
-      <c r="C45" s="121" t="n">
+      <c r="C45" s="122" t="n">
         <f aca="false">COUNTA(C41:C44)</f>
         <v>4</v>
       </c>
-      <c r="D45" s="121" t="n">
+      <c r="D45" s="122" t="n">
         <f aca="false">COUNTA(D41:D44)</f>
         <v>4</v>
       </c>
-      <c r="E45" s="124" t="n">
+      <c r="E45" s="125" t="n">
         <f aca="false">COUNTA(E41:E44)</f>
         <v>2</v>
       </c>
-      <c r="F45" s="121" t="n">
+      <c r="F45" s="122" t="n">
         <f aca="false">COUNTA(F41:F44)</f>
         <v>4</v>
       </c>
-      <c r="G45" s="121" t="n">
+      <c r="G45" s="122" t="n">
         <f aca="false">COUNTA(G41:G44)</f>
         <v>2</v>
       </c>
-      <c r="H45" s="121" t="n">
+      <c r="H45" s="122" t="n">
         <f aca="false">COUNTA(H41:H44)</f>
         <v>2</v>
       </c>
-      <c r="I45" s="121" t="n">
+      <c r="I45" s="122" t="n">
         <f aca="false">COUNTA(I41:I44)</f>
         <v>2</v>
       </c>
-      <c r="J45" s="121" t="n">
+      <c r="J45" s="122" t="n">
         <f aca="false">COUNTA(J41:J44)</f>
         <v>2</v>
       </c>
-      <c r="K45" s="124" t="n">
+      <c r="K45" s="125" t="n">
         <f aca="false">COUNTA(K41:K44)</f>
         <v>2</v>
       </c>
-      <c r="L45" s="121" t="n">
+      <c r="L45" s="122" t="n">
         <f aca="false">COUNTA(L41:L44)</f>
         <v>4</v>
       </c>
-      <c r="M45" s="121" t="n">
+      <c r="M45" s="122" t="n">
         <f aca="false">COUNTA(M41:M44)</f>
         <v>4</v>
       </c>
-      <c r="N45" s="121" t="n">
+      <c r="N45" s="122" t="n">
         <f aca="false">COUNTA(N41:N44)</f>
         <v>4</v>
       </c>
-      <c r="O45" s="121" t="n">
+      <c r="O45" s="122" t="n">
         <f aca="false">COUNTA(O41:O44)</f>
         <v>4</v>
       </c>
-      <c r="P45" s="121" t="n">
+      <c r="P45" s="122" t="n">
         <f aca="false">COUNTA(P41:P44)</f>
         <v>4</v>
       </c>
-      <c r="Q45" s="121" t="n">
+      <c r="Q45" s="122" t="n">
         <f aca="false">COUNTA(Q41:Q44)</f>
         <v>4</v>
       </c>
-      <c r="R45" s="121" t="n">
+      <c r="R45" s="122" t="n">
         <f aca="false">COUNTA(R41:R44)</f>
         <v>4</v>
       </c>
-      <c r="S45" s="121" t="n">
+      <c r="S45" s="122" t="n">
         <f aca="false">COUNTA(S41:S44)</f>
         <v>4</v>
       </c>
-      <c r="T45" s="121" t="n">
+      <c r="T45" s="122" t="n">
         <f aca="false">COUNTA(T41:T44)</f>
         <v>4</v>
       </c>
-      <c r="U45" s="121" t="n">
+      <c r="U45" s="122" t="n">
         <f aca="false">COUNTA(U41:U44)</f>
         <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="121"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="0" t="n">
         <f aca="false">SUM(C45,C39,C21)</f>
         <v>22</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">SUM(D45,D39,D21)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E46" s="0" t="n">
         <f aca="false">SUM(E45,E39,E21)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F46" s="0" t="n">
         <f aca="false">SUM(F45,F39,F21)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">SUM(G45,G39,G21)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H46" s="0" t="n">
         <f aca="false">SUM(H45,H39,H21)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I46" s="0" t="n">
         <f aca="false">SUM(I45,I39,I21)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J46" s="0" t="n">
         <f aca="false">SUM(J45,J39,J21)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K46" s="0" t="n">
         <f aca="false">SUM(K45,K39,K21)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">SUM(L45,L39,L21)</f>
@@ -19655,7 +19883,7 @@
       </c>
       <c r="N46" s="0" t="n">
         <f aca="false">SUM(N45,N39,N21)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O46" s="0" t="n">
         <f aca="false">SUM(O45,O39,O21)</f>
@@ -19667,23 +19895,23 @@
       </c>
       <c r="Q46" s="0" t="n">
         <f aca="false">SUM(Q45,Q39,Q21)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R46" s="0" t="n">
         <f aca="false">SUM(R45,R39,R21)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S46" s="0" t="n">
         <f aca="false">SUM(S45,S39,S21)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T46" s="0" t="n">
         <f aca="false">SUM(T45,T39,T21)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U46" s="0" t="n">
         <f aca="false">SUM(U45,U39,U21)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -19725,10 +19953,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.53441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.4251012145749"/>
@@ -19737,90 +19965,90 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="141" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="140" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="140" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="137" t="n">
+      <c r="B4" s="142" t="n">
         <v>60000000106314</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="140" t="n">
+      <c r="H4" s="145" t="n">
         <v>9.3</v>
       </c>
-      <c r="I4" s="140" t="n">
+      <c r="I4" s="145" t="n">
         <v>9.021</v>
       </c>
-      <c r="J4" s="140" t="n">
+      <c r="J4" s="145" t="n">
         <v>9.3</v>
       </c>
     </row>
@@ -19828,31 +20056,31 @@
       <c r="A5" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="137" t="n">
+      <c r="B5" s="142" t="n">
         <v>60000000101327</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="140" t="n">
+      <c r="H5" s="145" t="n">
         <v>9.1</v>
       </c>
-      <c r="I5" s="140" t="n">
+      <c r="I5" s="145" t="n">
         <v>8.827</v>
       </c>
-      <c r="J5" s="140" t="n">
+      <c r="J5" s="145" t="n">
         <v>9.1</v>
       </c>
     </row>
@@ -19860,31 +20088,31 @@
       <c r="A6" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="137" t="n">
+      <c r="B6" s="142" t="n">
         <v>1113</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="140" t="n">
+      <c r="H6" s="145" t="n">
         <v>7.65</v>
       </c>
-      <c r="I6" s="140" t="n">
+      <c r="I6" s="145" t="n">
         <v>7.4205</v>
       </c>
-      <c r="J6" s="140" t="n">
+      <c r="J6" s="145" t="n">
         <v>7.65</v>
       </c>
     </row>
@@ -19892,31 +20120,31 @@
       <c r="A7" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="137" t="n">
+      <c r="B7" s="142" t="n">
         <v>1114</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="G7" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="140" t="n">
+      <c r="H7" s="145" t="n">
         <v>8.65</v>
       </c>
-      <c r="I7" s="140" t="n">
+      <c r="I7" s="145" t="n">
         <v>8.3905</v>
       </c>
-      <c r="J7" s="140" t="n">
+      <c r="J7" s="145" t="n">
         <v>8.65</v>
       </c>
     </row>
@@ -19924,31 +20152,31 @@
       <c r="A8" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="137" t="n">
+      <c r="B8" s="142" t="n">
         <v>512204</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="140" t="n">
+      <c r="H8" s="145" t="n">
         <v>6.65</v>
       </c>
-      <c r="I8" s="140" t="n">
+      <c r="I8" s="145" t="n">
         <v>6.4505</v>
       </c>
-      <c r="J8" s="140" t="n">
+      <c r="J8" s="145" t="n">
         <v>6.65</v>
       </c>
     </row>
@@ -19956,31 +20184,31 @@
       <c r="A9" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="137" t="n">
+      <c r="B9" s="142" t="n">
         <v>11000000004703</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="138" t="s">
+      <c r="F9" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="139" t="s">
+      <c r="G9" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="140" t="n">
+      <c r="H9" s="145" t="n">
         <v>10.2</v>
       </c>
-      <c r="I9" s="140" t="n">
+      <c r="I9" s="145" t="n">
         <v>9.894</v>
       </c>
-      <c r="J9" s="140" t="n">
+      <c r="J9" s="145" t="n">
         <v>10.2</v>
       </c>
     </row>
@@ -19988,31 +20216,31 @@
       <c r="A10" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="137" t="n">
+      <c r="B10" s="142" t="n">
         <v>9585185</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="138" t="s">
+      <c r="F10" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="140" t="n">
+      <c r="H10" s="145" t="n">
         <v>8.3</v>
       </c>
-      <c r="I10" s="140" t="n">
+      <c r="I10" s="145" t="n">
         <v>8.051</v>
       </c>
-      <c r="J10" s="140" t="n">
+      <c r="J10" s="145" t="n">
         <v>8.3</v>
       </c>
     </row>
@@ -20020,31 +20248,31 @@
       <c r="A11" s="74" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="137" t="n">
+      <c r="B11" s="142" t="n">
         <v>512556</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="140" t="n">
+      <c r="H11" s="145" t="n">
         <v>8.3</v>
       </c>
-      <c r="I11" s="140" t="n">
+      <c r="I11" s="145" t="n">
         <v>8.051</v>
       </c>
-      <c r="J11" s="140" t="n">
+      <c r="J11" s="145" t="n">
         <v>8.3</v>
       </c>
     </row>
@@ -20052,31 +20280,31 @@
       <c r="A12" s="74" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="137" t="n">
+      <c r="B12" s="142" t="n">
         <v>512563</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="140" t="n">
+      <c r="H12" s="145" t="n">
         <v>48.2</v>
       </c>
-      <c r="I12" s="140" t="n">
+      <c r="I12" s="145" t="n">
         <v>46.754</v>
       </c>
-      <c r="J12" s="140" t="n">
+      <c r="J12" s="145" t="n">
         <v>48.2</v>
       </c>
     </row>
@@ -20084,31 +20312,31 @@
       <c r="A13" s="74" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="137" t="n">
+      <c r="B13" s="142" t="n">
         <v>2162010585</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="140" t="n">
+      <c r="H13" s="145" t="n">
         <v>6.2</v>
       </c>
-      <c r="I13" s="140" t="n">
+      <c r="I13" s="145" t="n">
         <v>6.014</v>
       </c>
-      <c r="J13" s="140" t="n">
+      <c r="J13" s="145" t="n">
         <v>6.2</v>
       </c>
     </row>
@@ -20116,31 +20344,31 @@
       <c r="A14" s="74" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="137" t="n">
+      <c r="B14" s="142" t="n">
         <v>512013</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="143" t="s">
         <v>257</v>
       </c>
-      <c r="E14" s="139" t="s">
+      <c r="E14" s="144" t="s">
         <v>258</v>
       </c>
-      <c r="F14" s="138" t="s">
+      <c r="F14" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="140" t="n">
+      <c r="H14" s="145" t="n">
         <v>8.3</v>
       </c>
-      <c r="I14" s="140" t="n">
+      <c r="I14" s="145" t="n">
         <v>8.051</v>
       </c>
-      <c r="J14" s="140" t="n">
+      <c r="J14" s="145" t="n">
         <v>8.3</v>
       </c>
     </row>
@@ -20148,31 +20376,31 @@
       <c r="A15" s="74" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="137" t="n">
+      <c r="B15" s="142" t="n">
         <v>9586239</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="143" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="E15" s="144" t="s">
         <v>260</v>
       </c>
-      <c r="F15" s="138" t="s">
+      <c r="F15" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G15" s="139" t="s">
+      <c r="G15" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H15" s="140" t="n">
+      <c r="H15" s="145" t="n">
         <v>7.3</v>
       </c>
-      <c r="I15" s="140" t="n">
+      <c r="I15" s="145" t="n">
         <v>7.081</v>
       </c>
-      <c r="J15" s="140" t="n">
+      <c r="J15" s="145" t="n">
         <v>7.3</v>
       </c>
     </row>
@@ -20180,31 +20408,31 @@
       <c r="A16" s="74" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="137" t="n">
+      <c r="B16" s="142" t="n">
         <v>512471</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="F16" s="138" t="s">
+      <c r="F16" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="140" t="n">
+      <c r="H16" s="145" t="n">
         <v>7.2</v>
       </c>
-      <c r="I16" s="140" t="n">
+      <c r="I16" s="145" t="n">
         <v>6.984</v>
       </c>
-      <c r="J16" s="140" t="n">
+      <c r="J16" s="145" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -20212,31 +20440,31 @@
       <c r="A17" s="74" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="137" t="n">
+      <c r="B17" s="142" t="n">
         <v>512495</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="144" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="138" t="s">
+      <c r="F17" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G17" s="139" t="s">
+      <c r="G17" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H17" s="140" t="n">
+      <c r="H17" s="145" t="n">
         <v>41.9</v>
       </c>
-      <c r="I17" s="140" t="n">
+      <c r="I17" s="145" t="n">
         <v>40.643</v>
       </c>
-      <c r="J17" s="140" t="n">
+      <c r="J17" s="145" t="n">
         <v>41.9</v>
       </c>
     </row>
@@ -20244,31 +20472,31 @@
       <c r="A18" s="74" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="137" t="n">
+      <c r="B18" s="142" t="n">
         <v>7091747</v>
       </c>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="144" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="138" t="s">
+      <c r="F18" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G18" s="139" t="s">
+      <c r="G18" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H18" s="140" t="n">
+      <c r="H18" s="145" t="n">
         <v>9.1</v>
       </c>
-      <c r="I18" s="140" t="n">
+      <c r="I18" s="145" t="n">
         <v>8.827</v>
       </c>
-      <c r="J18" s="140" t="n">
+      <c r="J18" s="145" t="n">
         <v>9.1</v>
       </c>
     </row>
@@ -20276,31 +20504,31 @@
       <c r="A19" s="74" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="137" t="n">
+      <c r="B19" s="142" t="n">
         <v>9592274</v>
       </c>
-      <c r="C19" s="138" t="s">
+      <c r="C19" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="E19" s="139" t="s">
+      <c r="E19" s="144" t="s">
         <v>267</v>
       </c>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="139" t="s">
+      <c r="G19" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="140" t="n">
+      <c r="H19" s="145" t="n">
         <v>7.25</v>
       </c>
-      <c r="I19" s="140" t="n">
+      <c r="I19" s="145" t="n">
         <v>7.0325</v>
       </c>
-      <c r="J19" s="140" t="n">
+      <c r="J19" s="145" t="n">
         <v>7.25</v>
       </c>
     </row>
@@ -20308,31 +20536,31 @@
       <c r="A20" s="74" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="137" t="n">
+      <c r="B20" s="142" t="n">
         <v>124685</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="138" t="s">
+      <c r="D20" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="F20" s="138" t="s">
+      <c r="F20" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="139" t="s">
+      <c r="G20" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="140" t="n">
+      <c r="H20" s="145" t="n">
         <v>12.8</v>
       </c>
-      <c r="I20" s="140" t="n">
+      <c r="I20" s="145" t="n">
         <v>9.6</v>
       </c>
-      <c r="J20" s="140" t="n">
+      <c r="J20" s="145" t="n">
         <v>12.8</v>
       </c>
     </row>
@@ -20340,31 +20568,31 @@
       <c r="A21" s="74" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="137" t="n">
+      <c r="B21" s="142" t="n">
         <v>60000000109281</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="139" t="s">
+      <c r="E21" s="144" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="140" t="n">
+      <c r="H21" s="145" t="n">
         <v>12.8</v>
       </c>
-      <c r="I21" s="140" t="n">
+      <c r="I21" s="145" t="n">
         <v>9.6</v>
       </c>
-      <c r="J21" s="140" t="n">
+      <c r="J21" s="145" t="n">
         <v>12.8</v>
       </c>
     </row>
@@ -20372,31 +20600,31 @@
       <c r="A22" s="74" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="137" t="n">
+      <c r="B22" s="142" t="n">
         <v>241107</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="143" t="s">
         <v>272</v>
       </c>
-      <c r="E22" s="139" t="s">
+      <c r="E22" s="144" t="s">
         <v>273</v>
       </c>
-      <c r="F22" s="138" t="s">
+      <c r="F22" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="139" t="s">
+      <c r="G22" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="140" t="n">
+      <c r="H22" s="145" t="n">
         <v>8.5</v>
       </c>
-      <c r="I22" s="140" t="n">
+      <c r="I22" s="145" t="n">
         <v>6.75</v>
       </c>
-      <c r="J22" s="140" t="n">
+      <c r="J22" s="145" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -20404,31 +20632,31 @@
       <c r="A23" s="74" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="137" t="n">
+      <c r="B23" s="142" t="n">
         <v>60000000031021</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="138" t="s">
+      <c r="D23" s="143" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="139" t="s">
+      <c r="E23" s="144" t="s">
         <v>274</v>
       </c>
-      <c r="F23" s="138" t="s">
+      <c r="F23" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="140" t="n">
+      <c r="H23" s="145" t="n">
         <v>12.9</v>
       </c>
-      <c r="I23" s="140" t="n">
+      <c r="I23" s="145" t="n">
         <v>12.9</v>
       </c>
-      <c r="J23" s="140" t="n">
+      <c r="J23" s="145" t="n">
         <v>12.9</v>
       </c>
     </row>
@@ -20436,31 +20664,31 @@
       <c r="A24" s="74" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="137" t="n">
+      <c r="B24" s="142" t="n">
         <v>60000000031022</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="138" t="s">
+      <c r="D24" s="143" t="s">
         <v>272</v>
       </c>
-      <c r="E24" s="139" t="s">
+      <c r="E24" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="F24" s="138" t="s">
+      <c r="F24" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G24" s="139" t="s">
+      <c r="G24" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="140" t="n">
+      <c r="H24" s="145" t="n">
         <v>12.9</v>
       </c>
-      <c r="I24" s="140" t="n">
+      <c r="I24" s="145" t="n">
         <v>12.9</v>
       </c>
-      <c r="J24" s="140" t="n">
+      <c r="J24" s="145" t="n">
         <v>12.9</v>
       </c>
     </row>
@@ -20468,31 +20696,31 @@
       <c r="A25" s="74" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="137" t="n">
+      <c r="B25" s="142" t="n">
         <v>230842</v>
       </c>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="138" t="s">
+      <c r="D25" s="143" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="139" t="s">
+      <c r="E25" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="F25" s="138" t="s">
+      <c r="F25" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G25" s="139" t="s">
+      <c r="G25" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="140" t="n">
+      <c r="H25" s="145" t="n">
         <v>8.5</v>
       </c>
-      <c r="I25" s="140" t="n">
+      <c r="I25" s="145" t="n">
         <v>6.75</v>
       </c>
-      <c r="J25" s="140" t="n">
+      <c r="J25" s="145" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -20500,31 +20728,31 @@
       <c r="A26" s="74" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="137" t="n">
+      <c r="B26" s="142" t="n">
         <v>60000000029239</v>
       </c>
-      <c r="C26" s="138" t="s">
+      <c r="C26" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="138" t="s">
+      <c r="D26" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="138" t="s">
+      <c r="F26" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H26" s="140" t="n">
+      <c r="H26" s="145" t="n">
         <v>7.2</v>
       </c>
-      <c r="I26" s="140" t="n">
+      <c r="I26" s="145" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J26" s="140" t="n">
+      <c r="J26" s="145" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -20532,31 +20760,31 @@
       <c r="A27" s="74" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="137" t="n">
+      <c r="B27" s="142" t="n">
         <v>60000000031395</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="139" t="s">
+      <c r="E27" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="F27" s="138" t="s">
+      <c r="F27" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G27" s="139" t="s">
+      <c r="G27" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="140" t="n">
+      <c r="H27" s="145" t="n">
         <v>7.2</v>
       </c>
-      <c r="I27" s="140" t="n">
+      <c r="I27" s="145" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J27" s="140" t="n">
+      <c r="J27" s="145" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -20564,31 +20792,31 @@
       <c r="A28" s="74" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="137" t="n">
+      <c r="B28" s="142" t="n">
         <v>60000000031042</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D28" s="138" t="s">
+      <c r="D28" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="139" t="s">
+      <c r="E28" s="144" t="s">
         <v>281</v>
       </c>
-      <c r="F28" s="138" t="s">
+      <c r="F28" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G28" s="139" t="s">
+      <c r="G28" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="140" t="n">
+      <c r="H28" s="145" t="n">
         <v>7.2</v>
       </c>
-      <c r="I28" s="140" t="n">
+      <c r="I28" s="145" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J28" s="140" t="n">
+      <c r="J28" s="145" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -20596,31 +20824,31 @@
       <c r="A29" s="74" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="137" t="n">
+      <c r="B29" s="142" t="n">
         <v>60000000108158</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D29" s="138" t="s">
+      <c r="D29" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="139" t="s">
+      <c r="E29" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="F29" s="138" t="s">
+      <c r="F29" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G29" s="139" t="s">
+      <c r="G29" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="140" t="n">
+      <c r="H29" s="145" t="n">
         <v>7.5</v>
       </c>
-      <c r="I29" s="140" t="n">
+      <c r="I29" s="145" t="n">
         <v>4.3725</v>
       </c>
-      <c r="J29" s="140" t="n">
+      <c r="J29" s="145" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -20628,31 +20856,31 @@
       <c r="A30" s="74" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="137" t="n">
+      <c r="B30" s="142" t="n">
         <v>60000000029240</v>
       </c>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="138" t="s">
+      <c r="D30" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="E30" s="139" t="s">
+      <c r="E30" s="144" t="s">
         <v>283</v>
       </c>
-      <c r="F30" s="138" t="s">
+      <c r="F30" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="140" t="n">
+      <c r="H30" s="145" t="n">
         <v>7.5</v>
       </c>
-      <c r="I30" s="140" t="n">
+      <c r="I30" s="145" t="n">
         <v>4.3725</v>
       </c>
-      <c r="J30" s="140" t="n">
+      <c r="J30" s="145" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -20660,31 +20888,31 @@
       <c r="A31" s="74" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="137" t="n">
+      <c r="B31" s="142" t="n">
         <v>240957</v>
       </c>
-      <c r="C31" s="138" t="s">
+      <c r="C31" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="138" t="s">
+      <c r="D31" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="139" t="s">
+      <c r="E31" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="139" t="s">
+      <c r="G31" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="140" t="n">
+      <c r="H31" s="145" t="n">
         <v>9.5</v>
       </c>
-      <c r="I31" s="140" t="n">
+      <c r="I31" s="145" t="n">
         <v>6.004</v>
       </c>
-      <c r="J31" s="140" t="n">
+      <c r="J31" s="145" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -20692,31 +20920,31 @@
       <c r="A32" s="74" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="137" t="n">
+      <c r="B32" s="142" t="n">
         <v>240476</v>
       </c>
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="138" t="s">
+      <c r="D32" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="139" t="s">
+      <c r="E32" s="144" t="s">
         <v>286</v>
       </c>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="139" t="s">
+      <c r="G32" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="140" t="n">
+      <c r="H32" s="145" t="n">
         <v>9.5</v>
       </c>
-      <c r="I32" s="140" t="n">
+      <c r="I32" s="145" t="n">
         <v>6.004</v>
       </c>
-      <c r="J32" s="140" t="n">
+      <c r="J32" s="145" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -20724,31 +20952,31 @@
       <c r="A33" s="74" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="137" t="n">
+      <c r="B33" s="142" t="n">
         <v>60000000109393</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="138" t="s">
+      <c r="D33" s="143" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="139" t="s">
+      <c r="E33" s="144" t="s">
         <v>288</v>
       </c>
-      <c r="F33" s="138" t="s">
+      <c r="F33" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G33" s="139" t="s">
+      <c r="G33" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H33" s="140" t="n">
+      <c r="H33" s="145" t="n">
         <v>8.9</v>
       </c>
-      <c r="I33" s="140" t="n">
+      <c r="I33" s="145" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J33" s="140" t="n">
+      <c r="J33" s="145" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -20756,31 +20984,31 @@
       <c r="A34" s="74" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="137" t="n">
+      <c r="B34" s="142" t="n">
         <v>60000000112310</v>
       </c>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="143" t="s">
         <v>287</v>
       </c>
-      <c r="E34" s="139" t="s">
+      <c r="E34" s="144" t="s">
         <v>289</v>
       </c>
-      <c r="F34" s="138" t="s">
+      <c r="F34" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="139" t="s">
+      <c r="G34" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="140" t="n">
+      <c r="H34" s="145" t="n">
         <v>8.9</v>
       </c>
-      <c r="I34" s="140" t="n">
+      <c r="I34" s="145" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J34" s="140" t="n">
+      <c r="J34" s="145" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -20788,31 +21016,31 @@
       <c r="A35" s="74" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="137" t="n">
+      <c r="B35" s="142" t="n">
         <v>60000000109392</v>
       </c>
-      <c r="C35" s="138" t="s">
+      <c r="C35" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D35" s="138" t="s">
+      <c r="D35" s="143" t="s">
         <v>287</v>
       </c>
-      <c r="E35" s="139" t="s">
+      <c r="E35" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="F35" s="138" t="s">
+      <c r="F35" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G35" s="139" t="s">
+      <c r="G35" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H35" s="140" t="n">
+      <c r="H35" s="145" t="n">
         <v>8.9</v>
       </c>
-      <c r="I35" s="140" t="n">
+      <c r="I35" s="145" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J35" s="140" t="n">
+      <c r="J35" s="145" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -20820,31 +21048,31 @@
       <c r="A36" s="74" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="137" t="n">
+      <c r="B36" s="142" t="n">
         <v>60000000108294</v>
       </c>
-      <c r="C36" s="138" t="s">
+      <c r="C36" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D36" s="138" t="s">
+      <c r="D36" s="143" t="s">
         <v>291</v>
       </c>
-      <c r="E36" s="139" t="s">
+      <c r="E36" s="144" t="s">
         <v>292</v>
       </c>
-      <c r="F36" s="138" t="s">
+      <c r="F36" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G36" s="139" t="s">
+      <c r="G36" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H36" s="140" t="n">
+      <c r="H36" s="145" t="n">
         <v>8.9</v>
       </c>
-      <c r="I36" s="140" t="n">
+      <c r="I36" s="145" t="n">
         <v>5.9986</v>
       </c>
-      <c r="J36" s="140" t="n">
+      <c r="J36" s="145" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -20852,31 +21080,31 @@
       <c r="A37" s="74" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="137" t="n">
+      <c r="B37" s="142" t="n">
         <v>60000000108295</v>
       </c>
-      <c r="C37" s="138" t="s">
+      <c r="C37" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="143" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="139" t="s">
+      <c r="E37" s="144" t="s">
         <v>293</v>
       </c>
-      <c r="F37" s="138" t="s">
+      <c r="F37" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G37" s="139" t="s">
+      <c r="G37" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="140" t="n">
+      <c r="H37" s="145" t="n">
         <v>9.5</v>
       </c>
-      <c r="I37" s="140" t="n">
+      <c r="I37" s="145" t="n">
         <v>6.004</v>
       </c>
-      <c r="J37" s="140" t="n">
+      <c r="J37" s="145" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -20884,31 +21112,31 @@
       <c r="A38" s="74" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="137" t="n">
+      <c r="B38" s="142" t="n">
         <v>60000000108332</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="138" t="s">
+      <c r="D38" s="143" t="s">
         <v>291</v>
       </c>
-      <c r="E38" s="139" t="s">
+      <c r="E38" s="144" t="s">
         <v>294</v>
       </c>
-      <c r="F38" s="138" t="s">
+      <c r="F38" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="G38" s="139" t="s">
+      <c r="G38" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="140" t="n">
+      <c r="H38" s="145" t="n">
         <v>8.9</v>
       </c>
-      <c r="I38" s="140" t="n">
+      <c r="I38" s="145" t="n">
         <v>5.9986</v>
       </c>
-      <c r="J38" s="140" t="n">
+      <c r="J38" s="145" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -20916,31 +21144,31 @@
       <c r="A39" s="74" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="141" t="n">
+      <c r="B39" s="146" t="n">
         <v>60000000112403</v>
       </c>
-      <c r="C39" s="142" t="s">
+      <c r="C39" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="142" t="s">
+      <c r="D39" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="143" t="s">
+      <c r="E39" s="148" t="s">
         <v>295</v>
       </c>
-      <c r="F39" s="143" t="s">
+      <c r="F39" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G39" s="143" t="s">
+      <c r="G39" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H39" s="144" t="n">
+      <c r="H39" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="I39" s="144" t="n">
+      <c r="I39" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="J39" s="144" t="n">
+      <c r="J39" s="149" t="n">
         <v>17</v>
       </c>
     </row>
@@ -20948,31 +21176,31 @@
       <c r="A40" s="74" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="141" t="n">
+      <c r="B40" s="146" t="n">
         <v>60000000111279</v>
       </c>
-      <c r="C40" s="142" t="s">
+      <c r="C40" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="142" t="s">
+      <c r="D40" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="143" t="s">
+      <c r="E40" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="F40" s="143" t="s">
+      <c r="F40" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G40" s="143" t="s">
+      <c r="G40" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H40" s="144" t="n">
+      <c r="H40" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="I40" s="144" t="n">
+      <c r="I40" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="J40" s="144" t="n">
+      <c r="J40" s="149" t="n">
         <v>17</v>
       </c>
     </row>
@@ -20980,31 +21208,31 @@
       <c r="A41" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="141" t="n">
+      <c r="B41" s="146" t="n">
         <v>60000000111938</v>
       </c>
-      <c r="C41" s="142" t="s">
+      <c r="C41" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D41" s="142" t="s">
+      <c r="D41" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E41" s="143" t="s">
+      <c r="E41" s="148" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="143" t="s">
+      <c r="F41" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="143" t="s">
+      <c r="G41" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H41" s="144" t="n">
+      <c r="H41" s="149" t="n">
         <v>17.8</v>
       </c>
-      <c r="I41" s="144" t="n">
+      <c r="I41" s="149" t="n">
         <v>17.8</v>
       </c>
-      <c r="J41" s="144" t="n">
+      <c r="J41" s="149" t="n">
         <v>17.8</v>
       </c>
     </row>
@@ -21012,31 +21240,31 @@
       <c r="A42" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="141" t="n">
+      <c r="B42" s="146" t="n">
         <v>60000000111317</v>
       </c>
-      <c r="C42" s="142" t="s">
+      <c r="C42" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D42" s="142" t="s">
+      <c r="D42" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="143" t="s">
+      <c r="E42" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="F42" s="143" t="s">
+      <c r="F42" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="143" t="s">
+      <c r="G42" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H42" s="144" t="n">
+      <c r="H42" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="I42" s="144" t="n">
+      <c r="I42" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="J42" s="144" t="n">
+      <c r="J42" s="149" t="n">
         <v>13.8</v>
       </c>
     </row>
@@ -21044,31 +21272,31 @@
       <c r="A43" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="141" t="n">
+      <c r="B43" s="146" t="n">
         <v>60000000111939</v>
       </c>
-      <c r="C43" s="142" t="s">
+      <c r="C43" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D43" s="142" t="s">
+      <c r="D43" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="143" t="s">
+      <c r="E43" s="148" t="s">
         <v>300</v>
       </c>
-      <c r="F43" s="143" t="s">
+      <c r="F43" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="143" t="s">
+      <c r="G43" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H43" s="144" t="n">
+      <c r="H43" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="I43" s="144" t="n">
+      <c r="I43" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="J43" s="144" t="n">
+      <c r="J43" s="149" t="n">
         <v>13.8</v>
       </c>
     </row>
@@ -21076,31 +21304,31 @@
       <c r="A44" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="141" t="n">
+      <c r="B44" s="146" t="n">
         <v>60000000111822</v>
       </c>
-      <c r="C44" s="142" t="s">
+      <c r="C44" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D44" s="142" t="s">
+      <c r="D44" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="143" t="s">
+      <c r="E44" s="148" t="s">
         <v>301</v>
       </c>
-      <c r="F44" s="143" t="s">
+      <c r="F44" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G44" s="143" t="s">
+      <c r="G44" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H44" s="144" t="n">
+      <c r="H44" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="I44" s="144" t="n">
+      <c r="I44" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="J44" s="144" t="n">
+      <c r="J44" s="149" t="n">
         <v>13.8</v>
       </c>
     </row>
@@ -21108,31 +21336,31 @@
       <c r="A45" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="141" t="n">
+      <c r="B45" s="146" t="n">
         <v>60000000031002</v>
       </c>
-      <c r="C45" s="142" t="s">
+      <c r="C45" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D45" s="142" t="s">
+      <c r="D45" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E45" s="143" t="s">
+      <c r="E45" s="148" t="s">
         <v>302</v>
       </c>
-      <c r="F45" s="143" t="s">
+      <c r="F45" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G45" s="143" t="s">
+      <c r="G45" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H45" s="144" t="n">
+      <c r="H45" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="I45" s="144" t="n">
+      <c r="I45" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="J45" s="144" t="n">
+      <c r="J45" s="149" t="n">
         <v>17</v>
       </c>
     </row>
@@ -21140,31 +21368,31 @@
       <c r="A46" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="141" t="n">
+      <c r="B46" s="146" t="n">
         <v>60000000031004</v>
       </c>
-      <c r="C46" s="142" t="s">
+      <c r="C46" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D46" s="142" t="s">
+      <c r="D46" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E46" s="143" t="s">
+      <c r="E46" s="148" t="s">
         <v>303</v>
       </c>
-      <c r="F46" s="143" t="s">
+      <c r="F46" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G46" s="143" t="s">
+      <c r="G46" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H46" s="144" t="n">
+      <c r="H46" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="I46" s="144" t="n">
+      <c r="I46" s="149" t="n">
         <v>17</v>
       </c>
-      <c r="J46" s="144" t="n">
+      <c r="J46" s="149" t="n">
         <v>17</v>
       </c>
     </row>
@@ -21172,31 +21400,31 @@
       <c r="A47" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="141" t="n">
+      <c r="B47" s="146" t="n">
         <v>60000000031003</v>
       </c>
-      <c r="C47" s="142" t="s">
+      <c r="C47" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D47" s="142" t="s">
+      <c r="D47" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="143" t="s">
+      <c r="E47" s="148" t="s">
         <v>304</v>
       </c>
-      <c r="F47" s="143" t="s">
+      <c r="F47" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G47" s="143" t="s">
+      <c r="G47" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H47" s="144" t="n">
+      <c r="H47" s="149" t="n">
         <v>17.8</v>
       </c>
-      <c r="I47" s="144" t="n">
+      <c r="I47" s="149" t="n">
         <v>17.8</v>
       </c>
-      <c r="J47" s="144" t="n">
+      <c r="J47" s="149" t="n">
         <v>17.8</v>
       </c>
     </row>
@@ -21204,31 +21432,31 @@
       <c r="A48" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="141" t="n">
+      <c r="B48" s="146" t="n">
         <v>60000000108300</v>
       </c>
-      <c r="C48" s="142" t="s">
+      <c r="C48" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D48" s="142" t="s">
+      <c r="D48" s="147" t="s">
         <v>291</v>
       </c>
-      <c r="E48" s="143" t="s">
+      <c r="E48" s="148" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="143" t="s">
+      <c r="F48" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G48" s="143" t="s">
+      <c r="G48" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H48" s="144" t="n">
+      <c r="H48" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="I48" s="144" t="n">
+      <c r="I48" s="149" t="n">
         <v>13.8</v>
       </c>
-      <c r="J48" s="144" t="n">
+      <c r="J48" s="149" t="n">
         <v>13.8</v>
       </c>
     </row>
@@ -21236,31 +21464,31 @@
       <c r="A49" s="74" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="141" t="n">
+      <c r="B49" s="146" t="n">
         <v>60000000031015</v>
       </c>
-      <c r="C49" s="142" t="s">
+      <c r="C49" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="142" t="s">
+      <c r="D49" s="147" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="143" t="s">
+      <c r="E49" s="148" t="s">
         <v>306</v>
       </c>
-      <c r="F49" s="143" t="s">
+      <c r="F49" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="143" t="s">
+      <c r="G49" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H49" s="144" t="n">
+      <c r="H49" s="149" t="n">
         <v>19</v>
       </c>
-      <c r="I49" s="144" t="n">
+      <c r="I49" s="149" t="n">
         <v>16.8986</v>
       </c>
-      <c r="J49" s="144" t="n">
+      <c r="J49" s="149" t="n">
         <v>19</v>
       </c>
     </row>
@@ -21268,31 +21496,31 @@
       <c r="A50" s="74" t="n">
         <v>47</v>
       </c>
-      <c r="B50" s="141" t="n">
+      <c r="B50" s="146" t="n">
         <v>60000000031014</v>
       </c>
-      <c r="C50" s="142" t="s">
+      <c r="C50" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D50" s="142" t="s">
+      <c r="D50" s="147" t="s">
         <v>284</v>
       </c>
-      <c r="E50" s="143" t="s">
+      <c r="E50" s="148" t="s">
         <v>307</v>
       </c>
-      <c r="F50" s="143" t="s">
+      <c r="F50" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G50" s="143" t="s">
+      <c r="G50" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H50" s="144" t="n">
+      <c r="H50" s="149" t="n">
         <v>19</v>
       </c>
-      <c r="I50" s="144" t="n">
+      <c r="I50" s="149" t="n">
         <v>16.8986</v>
       </c>
-      <c r="J50" s="144" t="n">
+      <c r="J50" s="149" t="n">
         <v>19</v>
       </c>
     </row>
@@ -21300,31 +21528,31 @@
       <c r="A51" s="74" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="141" t="n">
+      <c r="B51" s="146" t="n">
         <v>60000000102100</v>
       </c>
-      <c r="C51" s="142" t="s">
+      <c r="C51" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="142" t="s">
+      <c r="D51" s="147" t="s">
         <v>308</v>
       </c>
-      <c r="E51" s="143" t="s">
+      <c r="E51" s="148" t="s">
         <v>309</v>
       </c>
-      <c r="F51" s="143" t="s">
+      <c r="F51" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G51" s="143" t="s">
+      <c r="G51" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H51" s="144" t="n">
+      <c r="H51" s="149" t="n">
         <v>12</v>
       </c>
-      <c r="I51" s="144" t="n">
+      <c r="I51" s="149" t="n">
         <v>12</v>
       </c>
-      <c r="J51" s="144" t="n">
+      <c r="J51" s="149" t="n">
         <v>12</v>
       </c>
     </row>
@@ -21332,31 +21560,31 @@
       <c r="A52" s="74" t="n">
         <v>49</v>
       </c>
-      <c r="B52" s="141" t="n">
+      <c r="B52" s="146" t="n">
         <v>60000000102168</v>
       </c>
-      <c r="C52" s="142" t="s">
+      <c r="C52" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D52" s="142" t="s">
+      <c r="D52" s="147" t="s">
         <v>308</v>
       </c>
-      <c r="E52" s="143" t="s">
+      <c r="E52" s="148" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="143" t="s">
+      <c r="F52" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G52" s="143" t="s">
+      <c r="G52" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H52" s="144" t="n">
+      <c r="H52" s="149" t="n">
         <v>12</v>
       </c>
-      <c r="I52" s="144" t="n">
+      <c r="I52" s="149" t="n">
         <v>12</v>
       </c>
-      <c r="J52" s="144" t="n">
+      <c r="J52" s="149" t="n">
         <v>12</v>
       </c>
     </row>
@@ -21364,31 +21592,31 @@
       <c r="A53" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="141" t="n">
+      <c r="B53" s="146" t="n">
         <v>60000000112479</v>
       </c>
-      <c r="C53" s="142" t="s">
+      <c r="C53" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="142" t="s">
+      <c r="D53" s="147" t="s">
         <v>308</v>
       </c>
-      <c r="E53" s="143" t="s">
+      <c r="E53" s="148" t="s">
         <v>311</v>
       </c>
-      <c r="F53" s="143" t="s">
+      <c r="F53" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="G53" s="143" t="s">
+      <c r="G53" s="148" t="s">
         <v>296</v>
       </c>
-      <c r="H53" s="144" t="n">
+      <c r="H53" s="149" t="n">
         <v>12</v>
       </c>
-      <c r="I53" s="144" t="n">
+      <c r="I53" s="149" t="n">
         <v>12</v>
       </c>
-      <c r="J53" s="144" t="n">
+      <c r="J53" s="149" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Projects/GSKSG/Data/template.xlsx
+++ b/Projects/GSKSG/Data/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pharmacy" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="310">
   <si>
     <t xml:space="preserve">1st level</t>
   </si>
@@ -658,6 +658,9 @@
     <t xml:space="preserve">General Trade</t>
   </si>
   <si>
+    <t xml:space="preserve">template_name, target</t>
+  </si>
+  <si>
     <t xml:space="preserve">* Remark pricing communication - must with come with permanent price tag on each SKUs</t>
   </si>
   <si>
@@ -742,16 +745,16 @@
     <t xml:space="preserve">HYPER/SUPERMARKET</t>
   </si>
   <si>
+    <t xml:space="preserve">Product/Outlet Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Listing Priorities</t>
   </si>
   <si>
-    <t xml:space="preserve">Product/Outlet Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chinese Medical Hall</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimart/ Provision/ Others</t>
+    <t xml:space="preserve">Mini/ Provision/ Others</t>
   </si>
   <si>
     <t xml:space="preserve">Beauty Store</t>
@@ -787,9 +790,6 @@
     <t xml:space="preserve">HYPER</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand: Panadol (Oral Analgesics)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panadol Extra with Optizorb 20s</t>
   </si>
   <si>
@@ -838,9 +838,6 @@
     <t xml:space="preserve">Panadol Regular with Optizorb 120s</t>
   </si>
   <si>
-    <t xml:space="preserve">Adult Toothpaste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sensodyne Repair &amp; Protect 100g</t>
   </si>
   <si>
@@ -887,9 +884,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sensodyne gentle whitening tp 1x100g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denture Care</t>
   </si>
   <si>
     <t xml:space="preserve">Polident Denture Adhesive Cream 60g</t>
@@ -1172,7 +1166,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1328,13 +1322,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF4472C4"/>
       <name val="Wingdings"/>
@@ -1373,19 +1360,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Wingdings"/>
       <family val="0"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1499,7 +1486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1641,41 +1628,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
@@ -1717,7 +1669,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="141">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1962,6 +1914,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2074,10 +2030,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2094,12 +2046,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2130,35 +2082,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2166,19 +2114,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2186,31 +2122,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2218,103 +2182,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2403,8 +2319,8 @@
   </sheetPr>
   <dimension ref="1:32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="55.95"/>
@@ -2417,11 +2333,11 @@
     <col collapsed="false" hidden="false" max="13" min="11" style="5" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="5" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="15" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="5" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="5" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="6" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="27" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="13.3886639676113"/>
@@ -15420,7 +15336,7 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="X8" activeCellId="0" sqref="X8"/>
@@ -15428,23 +15344,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="35" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="37" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="38" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="13" style="38" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="74.1255060728745"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="23" min="13" style="38" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="76.0526315789474"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -16395,36 +16311,37 @@
   </sheetPr>
   <dimension ref="1:17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="37" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="38" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="38" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="38" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="38" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="38" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="38" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="38" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="38" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="74.1255060728745"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="38" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="38" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="38" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="38" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="38" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="38" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="38" width="14.331983805668"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="38" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="76.0526315789474"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="39" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -16454,7 +16371,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>2</v>
@@ -16551,11 +16468,15 @@
       </c>
       <c r="N2" s="58"/>
       <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="P2" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
       <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
+      <c r="T2" s="58" t="s">
+        <v>146</v>
+      </c>
       <c r="U2" s="58"/>
       <c r="V2" s="58"/>
       <c r="W2" s="58"/>
@@ -16572,31 +16493,31 @@
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="55"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="62" t="n">
+      <c r="E3" s="63" t="n">
         <v>0.2</v>
       </c>
-      <c r="F3" s="62" t="n">
+      <c r="F3" s="63" t="n">
         <v>0.2</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="64" t="n">
+      <c r="K3" s="65" t="n">
         <v>0.2</v>
       </c>
       <c r="L3" s="24" t="s">
@@ -16618,25 +16539,25 @@
       <c r="X3" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="65"/>
+      <c r="Y3" s="66"/>
       <c r="Z3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="55"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="20"/>
       <c r="H4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="64" t="n">
+      <c r="J4" s="63"/>
+      <c r="K4" s="65" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="24"/>
@@ -16664,10 +16585,10 @@
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="20"/>
       <c r="H5" s="46" t="s">
         <v>72</v>
@@ -16675,10 +16596,10 @@
       <c r="I5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="64" t="n">
+      <c r="K5" s="65" t="n">
         <v>0.2</v>
       </c>
       <c r="L5" s="24"/>
@@ -16696,16 +16617,16 @@
       <c r="X5" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="65"/>
+      <c r="Y5" s="66"/>
       <c r="Z5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="20"/>
       <c r="H6" s="46" t="s">
         <v>79</v>
@@ -16713,8 +16634,8 @@
       <c r="I6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="64" t="n">
+      <c r="J6" s="63"/>
+      <c r="K6" s="65" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="24"/>
@@ -16740,45 +16661,45 @@
     <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="62" t="n">
+      <c r="E7" s="63" t="n">
         <v>0.1</v>
       </c>
-      <c r="F7" s="62" t="n">
+      <c r="F7" s="63" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="64" t="n">
+      <c r="K7" s="65" t="n">
         <v>0.1</v>
       </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
       <c r="X7" s="47" t="s">
         <v>91</v>
       </c>
@@ -16788,10 +16709,10 @@
       <c r="Z7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="68" t="n">
+      <c r="B8" s="69" t="n">
         <v>100</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -16812,7 +16733,7 @@
       <c r="H8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="70" t="s">
         <v>111</v>
       </c>
       <c r="J8" s="58" t="s">
@@ -16844,49 +16765,49 @@
       <c r="Z8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="101.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="66" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="70" t="n">
+      <c r="E9" s="71" t="n">
         <v>0.1</v>
       </c>
-      <c r="F9" s="70" t="n">
+      <c r="F9" s="71" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="71" t="n">
+      <c r="K9" s="72" t="n">
         <v>0.1</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
       <c r="X9" s="47" t="s">
         <v>125</v>
       </c>
@@ -16896,33 +16817,33 @@
       <c r="Z9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
       <c r="X10" s="47" t="s">
         <v>144</v>
       </c>
@@ -16932,33 +16853,33 @@
       <c r="Z10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
       <c r="X11" s="53" t="s">
         <v>132</v>
       </c>
@@ -16971,7 +16892,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -17014,136 +16935,136 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>150</v>
+      <c r="B4" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>151</v>
+      <c r="B7" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="75" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74" t="s">
-        <v>153</v>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74" t="s">
-        <v>152</v>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -17164,96 +17085,96 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="75"/>
+      <c r="A1" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" s="37" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="74"/>
+      <c r="A7" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="75"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="75"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17276,16 +17197,16 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.0242914979757"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
@@ -17293,80 +17214,80 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="79" t="s">
+      <c r="A1" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="F1" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>162</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="83"/>
+      <c r="D2" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="74" t="s">
+      <c r="A3" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="82" t="s">
+      <c r="C3" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="83"/>
+      <c r="E3" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" customFormat="false" ht="29.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17384,28 +17305,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="89"/>
+      <c r="A1" s="90"/>
       <c r="B1" s="90"/>
       <c r="C1" s="91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
@@ -17416,7 +17336,7 @@
       <c r="J1" s="91"/>
       <c r="K1" s="91"/>
       <c r="L1" s="92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M1" s="92"/>
       <c r="N1" s="92"/>
@@ -17424,7 +17344,7 @@
       <c r="P1" s="92"/>
       <c r="Q1" s="92"/>
       <c r="R1" s="93" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S1" s="93"/>
       <c r="T1" s="93"/>
@@ -17432,2486 +17352,2074 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" s="96"/>
       <c r="E2" s="96"/>
       <c r="F2" s="96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
       <c r="I2" s="96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
       <c r="L2" s="97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
       <c r="O2" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P2" s="97"/>
       <c r="Q2" s="97"/>
       <c r="R2" s="98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="94"/>
       <c r="B3" s="95"/>
       <c r="C3" s="99" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="G3" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="99" t="s">
+      <c r="H3" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="J3" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="99" t="s">
-        <v>183</v>
-      </c>
       <c r="K3" s="100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M3" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="P3" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="O3" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="P3" s="101" t="s">
+      <c r="Q3" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="Q3" s="101" t="s">
+      <c r="T3" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="R3" s="102" t="s">
+      <c r="U3" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="T3" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="U3" s="102" t="s">
-        <v>187</v>
-      </c>
     </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="111"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="115"/>
+      <c r="A5" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="104" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="107" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="108" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="114" t="n">
+      <c r="A6" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="112" t="n">
+      <c r="A7" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="104" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="114" t="n">
+      <c r="L7" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="112" t="n">
+      <c r="A8" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="114" t="n">
+      <c r="I8" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="107" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="111" t="n">
+      <c r="A9" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="104" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="112" t="n">
+      <c r="J9" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="114" t="n">
+      <c r="K9" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="111" t="n">
+      <c r="A10" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="111" t="n">
+      <c r="I10" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="112" t="n">
+      <c r="K10" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="114" t="n">
+      <c r="L10" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="107" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="111" t="n">
+      <c r="A11" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="104" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="111" t="n">
+      <c r="F11" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="112" t="n">
+      <c r="H11" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="114" t="n">
+      <c r="I11" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="107" t="n">
+      <c r="A12" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="104" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="104" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="104" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="104" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="104" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="104" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="104" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="104" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T20" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U20" s="121" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="118" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="105"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T21" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U21" s="121" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="105"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="122"/>
+      <c r="L22" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S22" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T22" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U22" s="121" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="118" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="119"/>
+      <c r="F23" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="I23" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="118" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="119"/>
+      <c r="F24" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="118" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="123"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="119"/>
+      <c r="F26" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="120"/>
+      <c r="L26" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N26" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S26" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T26" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U26" s="123" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="118" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="108" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="114" t="n">
-        <v>1</v>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S27" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T27" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U27" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="107" t="n">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="118" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="114" t="n">
-        <v>1</v>
+      <c r="C28" s="105"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="119"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q28" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R28" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S28" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T28" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U28" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="107" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="118" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="119" t="n">
-        <v>0</v>
+      <c r="C29" s="105"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M29" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N29" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S29" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T29" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U29" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="107" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="118" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" s="119" t="n">
-        <v>0</v>
+      <c r="C30" s="105"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R30" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S30" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T30" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U30" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="107" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="118" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="119" t="n">
-        <v>0</v>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T31" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U31" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="107" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="118" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="119" t="n">
-        <v>0</v>
+      <c r="C32" s="122"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U32" s="121" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="107" t="n">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="118" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="119" t="n">
-        <v>0</v>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T33" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U33" s="121" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="107" t="n">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="124" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="118" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="119" t="n">
-        <v>0</v>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S34" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T34" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U34" s="121" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="107" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="108" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="119" t="n">
-        <v>0</v>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N35" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O35" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P35" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q35" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R35" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S35" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T35" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U35" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="103"/>
-      <c r="C21" s="122" t="n">
-        <f aca="false">COUNTA(C5:C20)</f>
-        <v>14</v>
-      </c>
-      <c r="D21" s="123" t="n">
-        <f aca="false">COUNTA(D5:D20)</f>
-        <v>16</v>
-      </c>
-      <c r="E21" s="124" t="n">
-        <f aca="false">COUNTA(E5:E20)</f>
-        <v>16</v>
-      </c>
-      <c r="F21" s="124" t="n">
-        <f aca="false">COUNTA(F5:F20)</f>
-        <v>16</v>
-      </c>
-      <c r="G21" s="124" t="n">
-        <f aca="false">COUNTA(G5:G20)</f>
-        <v>16</v>
-      </c>
-      <c r="H21" s="124" t="n">
-        <f aca="false">COUNTA(H5:H20)</f>
-        <v>16</v>
-      </c>
-      <c r="I21" s="124" t="n">
-        <f aca="false">COUNTA(I5:I20)</f>
-        <v>16</v>
-      </c>
-      <c r="J21" s="125" t="n">
-        <f aca="false">COUNTA(J5:J20)</f>
-        <v>16</v>
-      </c>
-      <c r="K21" s="124" t="n">
-        <f aca="false">COUNTA(K5:K20)</f>
-        <v>16</v>
-      </c>
-      <c r="L21" s="124" t="n">
-        <f aca="false">COUNTA(L5:L20)</f>
-        <v>16</v>
-      </c>
-      <c r="M21" s="124" t="n">
-        <f aca="false">COUNTA(M5:M20)</f>
-        <v>16</v>
-      </c>
-      <c r="N21" s="124" t="n">
-        <f aca="false">COUNTA(N5:N20)</f>
-        <v>16</v>
-      </c>
-      <c r="O21" s="124" t="n">
-        <f aca="false">COUNTA(O5:O20)</f>
-        <v>16</v>
-      </c>
-      <c r="P21" s="124" t="n">
-        <f aca="false">COUNTA(P5:P20)</f>
-        <v>16</v>
-      </c>
-      <c r="Q21" s="124" t="n">
-        <f aca="false">COUNTA(Q5:Q20)</f>
-        <v>16</v>
-      </c>
-      <c r="R21" s="124" t="n">
-        <f aca="false">COUNTA(R5:R20)</f>
-        <v>16</v>
-      </c>
-      <c r="S21" s="124" t="n">
-        <f aca="false">COUNTA(S5:S20)</f>
-        <v>16</v>
-      </c>
-      <c r="T21" s="124" t="n">
-        <f aca="false">COUNTA(T5:T20)</f>
-        <v>16</v>
-      </c>
-      <c r="U21" s="125" t="n">
-        <f aca="false">COUNTA(U5:U20)</f>
-        <v>16</v>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J36" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="L36" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M36" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N36" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O36" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P36" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q36" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R36" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S36" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T36" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U36" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="103"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="122"/>
+      <c r="F37" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T37" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U37" s="123" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="103"/>
-      <c r="B23" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="116" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K24" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="N24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T24" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U24" s="128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="103" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J25" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K25" s="132"/>
-      <c r="L25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="N25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T25" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U25" s="128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="103" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="109"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J26" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K26" s="132"/>
-      <c r="L26" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="N26" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S26" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T26" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U26" s="128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="103" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H27" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G28" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K28" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="103" t="n">
-        <v>6</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J29" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K29" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="129"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="103" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J30" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" s="131"/>
-      <c r="L30" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N30" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O30" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S30" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T30" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U30" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="103" t="n">
-        <v>8</v>
-      </c>
-      <c r="B31" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M31" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N31" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O31" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S31" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T31" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U31" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="103" t="n">
-        <v>9</v>
-      </c>
-      <c r="B32" s="116" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J32" s="130"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M32" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N32" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O32" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P32" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q32" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R32" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S32" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T32" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U32" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="103" t="n">
-        <v>10</v>
-      </c>
-      <c r="B33" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M33" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N33" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S33" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T33" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U33" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="103" t="n">
-        <v>11</v>
-      </c>
-      <c r="B34" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M34" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N34" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O34" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P34" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q34" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R34" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S34" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T34" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U34" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="103" t="n">
-        <v>12</v>
-      </c>
-      <c r="B35" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="N35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T35" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U35" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="103" t="n">
-        <v>13</v>
-      </c>
-      <c r="B36" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="N36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T36" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U36" s="128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="103" t="n">
-        <v>14</v>
-      </c>
-      <c r="B37" s="133" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="N37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T37" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U37" s="128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="103" t="n">
-        <v>15</v>
-      </c>
-      <c r="B38" s="133" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M38" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="N38" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O38" s="136"/>
-      <c r="P38" s="136"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S38" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T38" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U38" s="128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="116"/>
-      <c r="C39" s="122" t="n">
-        <f aca="false">COUNTA(C24:C35)</f>
-        <v>4</v>
-      </c>
-      <c r="D39" s="122" t="n">
-        <f aca="false">COUNTA(D24:D35)</f>
-        <v>3</v>
-      </c>
-      <c r="E39" s="122" t="n">
-        <f aca="false">COUNTA(E24:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="125" t="n">
-        <f aca="false">COUNTA(F24:F35)</f>
-        <v>8</v>
-      </c>
-      <c r="G39" s="122" t="n">
-        <f aca="false">COUNTA(G24:G35)</f>
-        <v>4</v>
-      </c>
-      <c r="H39" s="122" t="n">
-        <f aca="false">COUNTA(H24:H35)</f>
-        <v>2</v>
-      </c>
-      <c r="I39" s="122" t="n">
-        <f aca="false">COUNTA(I24:I35)</f>
-        <v>8</v>
-      </c>
-      <c r="J39" s="122" t="n">
-        <f aca="false">COUNTA(J24:J35)</f>
-        <v>7</v>
-      </c>
-      <c r="K39" s="125" t="n">
-        <f aca="false">COUNTA(K24:K35)</f>
-        <v>4</v>
-      </c>
-      <c r="L39" s="122" t="n">
-        <f aca="false">COUNTA(L24:L35)</f>
-        <v>9</v>
-      </c>
-      <c r="M39" s="124" t="n">
-        <f aca="false">COUNTA(M24:M35)</f>
-        <v>9</v>
-      </c>
-      <c r="N39" s="125" t="n">
-        <f aca="false">COUNTA(N24:N35)</f>
-        <v>9</v>
-      </c>
-      <c r="O39" s="122" t="n">
-        <f aca="false">COUNTA(O24:O35)</f>
-        <v>7</v>
-      </c>
-      <c r="P39" s="124" t="n">
-        <f aca="false">COUNTA(P24:P35)</f>
-        <v>5</v>
-      </c>
-      <c r="Q39" s="125" t="n">
-        <f aca="false">COUNTA(Q24:Q35)</f>
-        <v>5</v>
-      </c>
-      <c r="R39" s="122" t="n">
-        <f aca="false">COUNTA(R24:R35)</f>
-        <v>9</v>
-      </c>
-      <c r="S39" s="122" t="n">
-        <f aca="false">COUNTA(S24:S35)</f>
-        <v>9</v>
-      </c>
-      <c r="T39" s="122" t="n">
-        <f aca="false">COUNTA(T24:T35)</f>
-        <v>9</v>
-      </c>
-      <c r="U39" s="125" t="n">
-        <f aca="false">COUNTA(U24:U35)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="106"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="I41" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K41" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="L41" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M41" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N41" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O41" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P41" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q41" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R41" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S41" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T41" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U41" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="F42" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G42" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H42" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="I42" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J42" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K42" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="L42" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M42" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N42" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O42" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P42" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q42" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R42" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S42" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T42" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U42" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" s="132"/>
-      <c r="F43" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M43" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T43" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U43" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B44" s="103" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="138"/>
-      <c r="F44" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="M44" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="N44" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="O44" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="P44" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q44" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="R44" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="S44" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="T44" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="U44" s="129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="103"/>
-      <c r="C45" s="122" t="n">
-        <f aca="false">COUNTA(C41:C44)</f>
-        <v>4</v>
-      </c>
-      <c r="D45" s="122" t="n">
-        <f aca="false">COUNTA(D41:D44)</f>
-        <v>4</v>
-      </c>
-      <c r="E45" s="125" t="n">
-        <f aca="false">COUNTA(E41:E44)</f>
-        <v>2</v>
-      </c>
-      <c r="F45" s="122" t="n">
-        <f aca="false">COUNTA(F41:F44)</f>
-        <v>4</v>
-      </c>
-      <c r="G45" s="122" t="n">
-        <f aca="false">COUNTA(G41:G44)</f>
-        <v>2</v>
-      </c>
-      <c r="H45" s="122" t="n">
-        <f aca="false">COUNTA(H41:H44)</f>
-        <v>2</v>
-      </c>
-      <c r="I45" s="122" t="n">
-        <f aca="false">COUNTA(I41:I44)</f>
-        <v>2</v>
-      </c>
-      <c r="J45" s="122" t="n">
-        <f aca="false">COUNTA(J41:J44)</f>
-        <v>2</v>
-      </c>
-      <c r="K45" s="125" t="n">
-        <f aca="false">COUNTA(K41:K44)</f>
-        <v>2</v>
-      </c>
-      <c r="L45" s="122" t="n">
-        <f aca="false">COUNTA(L41:L44)</f>
-        <v>4</v>
-      </c>
-      <c r="M45" s="122" t="n">
-        <f aca="false">COUNTA(M41:M44)</f>
-        <v>4</v>
-      </c>
-      <c r="N45" s="122" t="n">
-        <f aca="false">COUNTA(N41:N44)</f>
-        <v>4</v>
-      </c>
-      <c r="O45" s="122" t="n">
-        <f aca="false">COUNTA(O41:O44)</f>
-        <v>4</v>
-      </c>
-      <c r="P45" s="122" t="n">
-        <f aca="false">COUNTA(P41:P44)</f>
-        <v>4</v>
-      </c>
-      <c r="Q45" s="122" t="n">
-        <f aca="false">COUNTA(Q41:Q44)</f>
-        <v>4</v>
-      </c>
-      <c r="R45" s="122" t="n">
-        <f aca="false">COUNTA(R41:R44)</f>
-        <v>4</v>
-      </c>
-      <c r="S45" s="122" t="n">
-        <f aca="false">COUNTA(S41:S44)</f>
-        <v>4</v>
-      </c>
-      <c r="T45" s="122" t="n">
-        <f aca="false">COUNTA(T41:T44)</f>
-        <v>4</v>
-      </c>
-      <c r="U45" s="122" t="n">
-        <f aca="false">COUNTA(U41:U44)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="122"/>
-      <c r="C46" s="0" t="n">
-        <f aca="false">SUM(C45,C39,C21)</f>
-        <v>22</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <f aca="false">SUM(D45,D39,D21)</f>
-        <v>23</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <f aca="false">SUM(E45,E39,E21)</f>
-        <v>18</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <f aca="false">SUM(F45,F39,F21)</f>
-        <v>28</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <f aca="false">SUM(G45,G39,G21)</f>
-        <v>22</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <f aca="false">SUM(H45,H39,H21)</f>
-        <v>20</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <f aca="false">SUM(I45,I39,I21)</f>
-        <v>26</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <f aca="false">SUM(J45,J39,J21)</f>
-        <v>25</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <f aca="false">SUM(K45,K39,K21)</f>
-        <v>22</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <f aca="false">SUM(L45,L39,L21)</f>
-        <v>29</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <f aca="false">SUM(M45,M39,M21)</f>
-        <v>29</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <f aca="false">SUM(N45,N39,N21)</f>
-        <v>29</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <f aca="false">SUM(O45,O39,O21)</f>
-        <v>27</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <f aca="false">SUM(P45,P39,P21)</f>
-        <v>25</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <f aca="false">SUM(Q45,Q39,Q21)</f>
-        <v>25</v>
-      </c>
-      <c r="R46" s="0" t="n">
-        <f aca="false">SUM(R45,R39,R21)</f>
-        <v>29</v>
-      </c>
-      <c r="S46" s="0" t="n">
-        <f aca="false">SUM(S45,S39,S21)</f>
-        <v>29</v>
-      </c>
-      <c r="T46" s="0" t="n">
-        <f aca="false">SUM(T45,T39,T21)</f>
-        <v>29</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <f aca="false">SUM(U45,U39,U21)</f>
-        <v>29</v>
+      <c r="D38" s="128" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="129"/>
+      <c r="F38" s="128" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N38" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="O38" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="P38" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q38" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="R38" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="S38" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="T38" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="U38" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -19946,17 +19454,17 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.53441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.4251012145749"/>
@@ -19965,1658 +19473,1658 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="D1" s="132" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="E1" s="131" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="F1" s="132" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="G1" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="H1" s="131" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="I1" s="131" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="J1" s="131" t="s">
         <v>235</v>
-      </c>
-      <c r="I1" s="140" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="140" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="142" t="n">
+      <c r="A4" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="133" t="n">
         <v>60000000106314</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="134" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="G4" s="135" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H4" s="145" t="n">
+      <c r="H4" s="136" t="n">
         <v>9.3</v>
       </c>
-      <c r="I4" s="145" t="n">
+      <c r="I4" s="136" t="n">
         <v>9.021</v>
       </c>
-      <c r="J4" s="145" t="n">
+      <c r="J4" s="136" t="n">
         <v>9.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="n">
+      <c r="A5" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="142" t="n">
+      <c r="B5" s="133" t="n">
         <v>60000000101327</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="144" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="134" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="E5" s="135" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="145" t="n">
+      <c r="F5" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="136" t="n">
         <v>9.1</v>
       </c>
-      <c r="I5" s="145" t="n">
+      <c r="I5" s="136" t="n">
         <v>8.827</v>
       </c>
-      <c r="J5" s="145" t="n">
+      <c r="J5" s="136" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="n">
+      <c r="A6" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="142" t="n">
+      <c r="B6" s="133" t="n">
         <v>1113</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="143" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="144" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H6" s="145" t="n">
+      <c r="D6" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="136" t="n">
         <v>7.65</v>
       </c>
-      <c r="I6" s="145" t="n">
+      <c r="I6" s="136" t="n">
         <v>7.4205</v>
       </c>
-      <c r="J6" s="145" t="n">
+      <c r="J6" s="136" t="n">
         <v>7.65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="n">
+      <c r="A7" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="142" t="n">
+      <c r="B7" s="133" t="n">
         <v>1114</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="144" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H7" s="145" t="n">
+      <c r="F7" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="136" t="n">
         <v>8.65</v>
       </c>
-      <c r="I7" s="145" t="n">
+      <c r="I7" s="136" t="n">
         <v>8.3905</v>
       </c>
-      <c r="J7" s="145" t="n">
+      <c r="J7" s="136" t="n">
         <v>8.65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="n">
+      <c r="A8" s="75" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="142" t="n">
+      <c r="B8" s="133" t="n">
         <v>512204</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="143" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="144" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="145" t="n">
+      <c r="D8" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="135" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="136" t="n">
         <v>6.65</v>
       </c>
-      <c r="I8" s="145" t="n">
+      <c r="I8" s="136" t="n">
         <v>6.4505</v>
       </c>
-      <c r="J8" s="145" t="n">
+      <c r="J8" s="136" t="n">
         <v>6.65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74" t="n">
+      <c r="A9" s="75" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="142" t="n">
+      <c r="B9" s="133" t="n">
         <v>11000000004703</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="143" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="144" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="145" t="n">
+      <c r="D9" s="134" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="135" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="136" t="n">
         <v>10.2</v>
       </c>
-      <c r="I9" s="145" t="n">
+      <c r="I9" s="136" t="n">
         <v>9.894</v>
       </c>
-      <c r="J9" s="145" t="n">
+      <c r="J9" s="136" t="n">
         <v>10.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74" t="n">
+      <c r="A10" s="75" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="142" t="n">
+      <c r="B10" s="133" t="n">
         <v>9585185</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="143" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="144" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" s="145" t="n">
+      <c r="D10" s="134" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="135" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="136" t="n">
         <v>8.3</v>
       </c>
-      <c r="I10" s="145" t="n">
+      <c r="I10" s="136" t="n">
         <v>8.051</v>
       </c>
-      <c r="J10" s="145" t="n">
+      <c r="J10" s="136" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74" t="n">
+      <c r="A11" s="75" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="142" t="n">
+      <c r="B11" s="133" t="n">
         <v>512556</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="143" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="144" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="145" t="n">
+      <c r="D11" s="134" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="136" t="n">
         <v>8.3</v>
       </c>
-      <c r="I11" s="145" t="n">
+      <c r="I11" s="136" t="n">
         <v>8.051</v>
       </c>
-      <c r="J11" s="145" t="n">
+      <c r="J11" s="136" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74" t="n">
+      <c r="A12" s="75" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="142" t="n">
+      <c r="B12" s="133" t="n">
         <v>512563</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="134" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="145" t="n">
+      <c r="F12" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="136" t="n">
         <v>48.2</v>
       </c>
-      <c r="I12" s="145" t="n">
+      <c r="I12" s="136" t="n">
         <v>46.754</v>
       </c>
-      <c r="J12" s="145" t="n">
+      <c r="J12" s="136" t="n">
         <v>48.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="74" t="n">
+      <c r="A13" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="142" t="n">
+      <c r="B13" s="133" t="n">
         <v>2162010585</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="143" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="144" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="145" t="n">
+      <c r="D13" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="136" t="n">
         <v>6.2</v>
       </c>
-      <c r="I13" s="145" t="n">
+      <c r="I13" s="136" t="n">
         <v>6.014</v>
       </c>
-      <c r="J13" s="145" t="n">
+      <c r="J13" s="136" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74" t="n">
+      <c r="A14" s="75" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="142" t="n">
+      <c r="B14" s="133" t="n">
         <v>512013</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="143" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="144" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H14" s="145" t="n">
+      <c r="D14" s="134" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="136" t="n">
         <v>8.3</v>
       </c>
-      <c r="I14" s="145" t="n">
+      <c r="I14" s="136" t="n">
         <v>8.051</v>
       </c>
-      <c r="J14" s="145" t="n">
+      <c r="J14" s="136" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="74" t="n">
+      <c r="A15" s="75" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="142" t="n">
+      <c r="B15" s="133" t="n">
         <v>9586239</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="143" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="144" t="s">
-        <v>260</v>
-      </c>
-      <c r="F15" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="145" t="n">
+      <c r="D15" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H15" s="136" t="n">
         <v>7.3</v>
       </c>
-      <c r="I15" s="145" t="n">
+      <c r="I15" s="136" t="n">
         <v>7.081</v>
       </c>
-      <c r="J15" s="145" t="n">
+      <c r="J15" s="136" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="74" t="n">
+      <c r="A16" s="75" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="142" t="n">
+      <c r="B16" s="133" t="n">
         <v>512471</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="143" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="144" t="s">
-        <v>262</v>
-      </c>
-      <c r="F16" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="145" t="n">
+      <c r="D16" s="134" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="136" t="n">
         <v>7.2</v>
       </c>
-      <c r="I16" s="145" t="n">
+      <c r="I16" s="136" t="n">
         <v>6.984</v>
       </c>
-      <c r="J16" s="145" t="n">
+      <c r="J16" s="136" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="74" t="n">
+      <c r="A17" s="75" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="142" t="n">
+      <c r="B17" s="133" t="n">
         <v>512495</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="134" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="144" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="145" t="n">
+      <c r="F17" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="136" t="n">
         <v>41.9</v>
       </c>
-      <c r="I17" s="145" t="n">
+      <c r="I17" s="136" t="n">
         <v>40.643</v>
       </c>
-      <c r="J17" s="145" t="n">
+      <c r="J17" s="136" t="n">
         <v>41.9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="74" t="n">
+      <c r="A18" s="75" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="142" t="n">
+      <c r="B18" s="133" t="n">
         <v>7091747</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="143" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="144" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H18" s="145" t="n">
+      <c r="D18" s="134" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="135" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="136" t="n">
         <v>9.1</v>
       </c>
-      <c r="I18" s="145" t="n">
+      <c r="I18" s="136" t="n">
         <v>8.827</v>
       </c>
-      <c r="J18" s="145" t="n">
+      <c r="J18" s="136" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="74" t="n">
+      <c r="A19" s="75" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="142" t="n">
+      <c r="B19" s="133" t="n">
         <v>9592274</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H19" s="145" t="n">
+      <c r="D19" s="134" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="135" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H19" s="136" t="n">
         <v>7.25</v>
       </c>
-      <c r="I19" s="145" t="n">
+      <c r="I19" s="136" t="n">
         <v>7.0325</v>
       </c>
-      <c r="J19" s="145" t="n">
+      <c r="J19" s="136" t="n">
         <v>7.25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="n">
+      <c r="A20" s="75" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="142" t="n">
+      <c r="B20" s="133" t="n">
         <v>124685</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="135" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="143" t="s">
-        <v>269</v>
-      </c>
-      <c r="E20" s="144" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" s="145" t="n">
+      <c r="F20" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="136" t="n">
         <v>12.8</v>
       </c>
-      <c r="I20" s="145" t="n">
+      <c r="I20" s="136" t="n">
         <v>9.6</v>
       </c>
-      <c r="J20" s="145" t="n">
+      <c r="J20" s="136" t="n">
         <v>12.8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="74" t="n">
+      <c r="A21" s="75" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="142" t="n">
+      <c r="B21" s="133" t="n">
         <v>60000000109281</v>
       </c>
-      <c r="C21" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="143" t="s">
+      <c r="C21" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="134" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="144" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H21" s="145" t="n">
+      <c r="F21" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="136" t="n">
         <v>12.8</v>
       </c>
-      <c r="I21" s="145" t="n">
+      <c r="I21" s="136" t="n">
         <v>9.6</v>
       </c>
-      <c r="J21" s="145" t="n">
+      <c r="J21" s="136" t="n">
         <v>12.8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="74" t="n">
+      <c r="A22" s="75" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="142" t="n">
+      <c r="B22" s="133" t="n">
         <v>241107</v>
       </c>
-      <c r="C22" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="144" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H22" s="145" t="n">
+      <c r="C22" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="135" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" s="136" t="n">
         <v>8.5</v>
       </c>
-      <c r="I22" s="145" t="n">
+      <c r="I22" s="136" t="n">
         <v>6.75</v>
       </c>
-      <c r="J22" s="145" t="n">
+      <c r="J22" s="136" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="n">
+      <c r="A23" s="75" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="142" t="n">
+      <c r="B23" s="133" t="n">
         <v>60000000031021</v>
       </c>
-      <c r="C23" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="D23" s="143" t="s">
+      <c r="C23" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="144" t="s">
-        <v>274</v>
-      </c>
-      <c r="F23" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" s="145" t="n">
+      <c r="F23" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H23" s="136" t="n">
         <v>12.9</v>
       </c>
-      <c r="I23" s="145" t="n">
+      <c r="I23" s="136" t="n">
         <v>12.9</v>
       </c>
-      <c r="J23" s="145" t="n">
+      <c r="J23" s="136" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="74" t="n">
+      <c r="A24" s="75" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="142" t="n">
+      <c r="B24" s="133" t="n">
         <v>60000000031022</v>
       </c>
-      <c r="C24" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="144" t="s">
-        <v>275</v>
-      </c>
-      <c r="F24" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H24" s="145" t="n">
+      <c r="C24" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="135" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H24" s="136" t="n">
         <v>12.9</v>
       </c>
-      <c r="I24" s="145" t="n">
+      <c r="I24" s="136" t="n">
         <v>12.9</v>
       </c>
-      <c r="J24" s="145" t="n">
+      <c r="J24" s="136" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="74" t="n">
+      <c r="A25" s="75" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="142" t="n">
+      <c r="B25" s="133" t="n">
         <v>230842</v>
       </c>
-      <c r="C25" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="E25" s="144" t="s">
-        <v>276</v>
-      </c>
-      <c r="F25" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H25" s="145" t="n">
+      <c r="C25" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="135" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="136" t="n">
         <v>8.5</v>
       </c>
-      <c r="I25" s="145" t="n">
+      <c r="I25" s="136" t="n">
         <v>6.75</v>
       </c>
-      <c r="J25" s="145" t="n">
+      <c r="J25" s="136" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="74" t="n">
+      <c r="A26" s="75" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="142" t="n">
+      <c r="B26" s="133" t="n">
         <v>60000000029239</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="143" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="144" t="s">
-        <v>279</v>
-      </c>
-      <c r="F26" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H26" s="145" t="n">
+      <c r="F26" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H26" s="136" t="n">
         <v>7.2</v>
       </c>
-      <c r="I26" s="145" t="n">
+      <c r="I26" s="136" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J26" s="145" t="n">
+      <c r="J26" s="136" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="74" t="n">
+      <c r="A27" s="75" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="142" t="n">
+      <c r="B27" s="133" t="n">
         <v>60000000031395</v>
       </c>
-      <c r="C27" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D27" s="143" t="s">
+      <c r="C27" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="144" t="s">
-        <v>280</v>
-      </c>
-      <c r="F27" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H27" s="145" t="n">
+      <c r="F27" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="136" t="n">
         <v>7.2</v>
       </c>
-      <c r="I27" s="145" t="n">
+      <c r="I27" s="136" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J27" s="145" t="n">
+      <c r="J27" s="136" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="74" t="n">
+      <c r="A28" s="75" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="142" t="n">
+      <c r="B28" s="133" t="n">
         <v>60000000031042</v>
       </c>
-      <c r="C28" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="143" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="144" t="s">
-        <v>281</v>
-      </c>
-      <c r="F28" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="145" t="n">
+      <c r="C28" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="136" t="n">
         <v>7.2</v>
       </c>
-      <c r="I28" s="145" t="n">
+      <c r="I28" s="136" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J28" s="145" t="n">
+      <c r="J28" s="136" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="74" t="n">
+      <c r="A29" s="75" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="142" t="n">
+      <c r="B29" s="133" t="n">
         <v>60000000108158</v>
       </c>
-      <c r="C29" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D29" s="143" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="145" t="n">
+      <c r="C29" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="136" t="n">
         <v>7.5</v>
       </c>
-      <c r="I29" s="145" t="n">
+      <c r="I29" s="136" t="n">
         <v>4.3725</v>
       </c>
-      <c r="J29" s="145" t="n">
+      <c r="J29" s="136" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="74" t="n">
+      <c r="A30" s="75" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="142" t="n">
+      <c r="B30" s="133" t="n">
         <v>60000000029240</v>
       </c>
-      <c r="C30" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="143" t="s">
-        <v>278</v>
-      </c>
-      <c r="E30" s="144" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="145" t="n">
+      <c r="C30" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" s="135" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="136" t="n">
         <v>7.5</v>
       </c>
-      <c r="I30" s="145" t="n">
+      <c r="I30" s="136" t="n">
         <v>4.3725</v>
       </c>
-      <c r="J30" s="145" t="n">
+      <c r="J30" s="136" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="74" t="n">
+      <c r="A31" s="75" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="142" t="n">
+      <c r="B31" s="133" t="n">
         <v>240957</v>
       </c>
-      <c r="C31" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="143" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="144" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H31" s="145" t="n">
+      <c r="C31" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="136" t="n">
         <v>9.5</v>
       </c>
-      <c r="I31" s="145" t="n">
+      <c r="I31" s="136" t="n">
         <v>6.004</v>
       </c>
-      <c r="J31" s="145" t="n">
+      <c r="J31" s="136" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="74" t="n">
+      <c r="A32" s="75" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="142" t="n">
+      <c r="B32" s="133" t="n">
         <v>240476</v>
       </c>
-      <c r="C32" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="143" t="s">
+      <c r="C32" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="135" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="144" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" s="145" t="n">
+      <c r="F32" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" s="136" t="n">
         <v>9.5</v>
       </c>
-      <c r="I32" s="145" t="n">
+      <c r="I32" s="136" t="n">
         <v>6.004</v>
       </c>
-      <c r="J32" s="145" t="n">
+      <c r="J32" s="136" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="74" t="n">
+      <c r="A33" s="75" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="142" t="n">
+      <c r="B33" s="133" t="n">
         <v>60000000109393</v>
       </c>
-      <c r="C33" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="143" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="144" t="s">
-        <v>288</v>
-      </c>
-      <c r="F33" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H33" s="145" t="n">
+      <c r="C33" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="134" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="135" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="136" t="n">
         <v>8.9</v>
       </c>
-      <c r="I33" s="145" t="n">
+      <c r="I33" s="136" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J33" s="145" t="n">
+      <c r="J33" s="136" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="74" t="n">
+      <c r="A34" s="75" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="142" t="n">
+      <c r="B34" s="133" t="n">
         <v>60000000112310</v>
       </c>
-      <c r="C34" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34" s="143" t="s">
+      <c r="C34" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="134" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" s="135" t="s">
         <v>287</v>
       </c>
-      <c r="E34" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="F34" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="145" t="n">
+      <c r="F34" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" s="136" t="n">
         <v>8.9</v>
       </c>
-      <c r="I34" s="145" t="n">
+      <c r="I34" s="136" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J34" s="145" t="n">
+      <c r="J34" s="136" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="74" t="n">
+      <c r="A35" s="75" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="142" t="n">
+      <c r="B35" s="133" t="n">
         <v>60000000109392</v>
       </c>
-      <c r="C35" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D35" s="143" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="144" t="s">
-        <v>290</v>
-      </c>
-      <c r="F35" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="145" t="n">
+      <c r="C35" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="134" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="135" t="s">
+        <v>288</v>
+      </c>
+      <c r="F35" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="136" t="n">
         <v>8.9</v>
       </c>
-      <c r="I35" s="145" t="n">
+      <c r="I35" s="136" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J35" s="145" t="n">
+      <c r="J35" s="136" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="74" t="n">
+      <c r="A36" s="75" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="142" t="n">
+      <c r="B36" s="133" t="n">
         <v>60000000108294</v>
       </c>
-      <c r="C36" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="E36" s="144" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G36" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="145" t="n">
+      <c r="C36" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="135" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="136" t="n">
         <v>8.9</v>
       </c>
-      <c r="I36" s="145" t="n">
+      <c r="I36" s="136" t="n">
         <v>5.9986</v>
       </c>
-      <c r="J36" s="145" t="n">
+      <c r="J36" s="136" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="74" t="n">
+      <c r="A37" s="75" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="142" t="n">
+      <c r="B37" s="133" t="n">
         <v>60000000108295</v>
       </c>
-      <c r="C37" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="143" t="s">
+      <c r="C37" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="144" t="s">
-        <v>293</v>
-      </c>
-      <c r="F37" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H37" s="145" t="n">
+      <c r="F37" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" s="136" t="n">
         <v>9.5</v>
       </c>
-      <c r="I37" s="145" t="n">
+      <c r="I37" s="136" t="n">
         <v>6.004</v>
       </c>
-      <c r="J37" s="145" t="n">
+      <c r="J37" s="136" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="74" t="n">
+      <c r="A38" s="75" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="142" t="n">
+      <c r="B38" s="133" t="n">
         <v>60000000108332</v>
       </c>
-      <c r="C38" s="143" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="144" t="s">
-        <v>294</v>
-      </c>
-      <c r="F38" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="G38" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" s="145" t="n">
+      <c r="C38" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="135" t="s">
+        <v>292</v>
+      </c>
+      <c r="F38" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" s="136" t="n">
         <v>8.9</v>
       </c>
-      <c r="I38" s="145" t="n">
+      <c r="I38" s="136" t="n">
         <v>5.9986</v>
       </c>
-      <c r="J38" s="145" t="n">
+      <c r="J38" s="136" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="74" t="n">
+      <c r="A39" s="75" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="146" t="n">
+      <c r="B39" s="137" t="n">
         <v>60000000112403</v>
       </c>
-      <c r="C39" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E39" s="148" t="s">
-        <v>295</v>
-      </c>
-      <c r="F39" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G39" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H39" s="149" t="n">
+      <c r="C39" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="139" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H39" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="I39" s="149" t="n">
+      <c r="I39" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="J39" s="149" t="n">
+      <c r="J39" s="140" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="74" t="n">
+      <c r="A40" s="75" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="146" t="n">
+      <c r="B40" s="137" t="n">
         <v>60000000111279</v>
       </c>
-      <c r="C40" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E40" s="148" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G40" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H40" s="149" t="n">
+      <c r="C40" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="139" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="I40" s="149" t="n">
+      <c r="I40" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="J40" s="149" t="n">
+      <c r="J40" s="140" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="74" t="n">
+      <c r="A41" s="75" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="146" t="n">
+      <c r="B41" s="137" t="n">
         <v>60000000111938</v>
       </c>
-      <c r="C41" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E41" s="148" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41" s="148" t="s">
+      <c r="C41" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H41" s="149" t="n">
+      <c r="F41" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" s="140" t="n">
         <v>17.8</v>
       </c>
-      <c r="I41" s="149" t="n">
+      <c r="I41" s="140" t="n">
         <v>17.8</v>
       </c>
-      <c r="J41" s="149" t="n">
+      <c r="J41" s="140" t="n">
         <v>17.8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="74" t="n">
+      <c r="A42" s="75" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="146" t="n">
+      <c r="B42" s="137" t="n">
         <v>60000000111317</v>
       </c>
-      <c r="C42" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D42" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E42" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H42" s="149" t="n">
+      <c r="C42" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" s="139" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H42" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="I42" s="149" t="n">
+      <c r="I42" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="J42" s="149" t="n">
+      <c r="J42" s="140" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="74" t="n">
+      <c r="A43" s="75" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="146" t="n">
+      <c r="B43" s="137" t="n">
         <v>60000000111939</v>
       </c>
-      <c r="C43" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D43" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="148" t="s">
-        <v>300</v>
-      </c>
-      <c r="F43" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G43" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H43" s="149" t="n">
+      <c r="C43" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="139" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H43" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="I43" s="149" t="n">
+      <c r="I43" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="J43" s="149" t="n">
+      <c r="J43" s="140" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="74" t="n">
+      <c r="A44" s="75" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="146" t="n">
+      <c r="B44" s="137" t="n">
         <v>60000000111822</v>
       </c>
-      <c r="C44" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" s="148" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G44" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H44" s="149" t="n">
+      <c r="C44" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="139" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="I44" s="149" t="n">
+      <c r="I44" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="J44" s="149" t="n">
+      <c r="J44" s="140" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="74" t="n">
+      <c r="A45" s="75" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="146" t="n">
+      <c r="B45" s="137" t="n">
         <v>60000000031002</v>
       </c>
-      <c r="C45" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D45" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="148" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G45" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H45" s="149" t="n">
+      <c r="C45" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="I45" s="149" t="n">
+      <c r="I45" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="J45" s="149" t="n">
+      <c r="J45" s="140" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="74" t="n">
+      <c r="A46" s="75" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="146" t="n">
+      <c r="B46" s="137" t="n">
         <v>60000000031004</v>
       </c>
-      <c r="C46" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D46" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E46" s="148" t="s">
-        <v>303</v>
-      </c>
-      <c r="F46" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G46" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" s="149" t="n">
+      <c r="C46" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" s="139" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G46" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H46" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="I46" s="149" t="n">
+      <c r="I46" s="140" t="n">
         <v>17</v>
       </c>
-      <c r="J46" s="149" t="n">
+      <c r="J46" s="140" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="74" t="n">
+      <c r="A47" s="75" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="146" t="n">
+      <c r="B47" s="137" t="n">
         <v>60000000031003</v>
       </c>
-      <c r="C47" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D47" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E47" s="148" t="s">
-        <v>304</v>
-      </c>
-      <c r="F47" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G47" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H47" s="149" t="n">
+      <c r="C47" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="139" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G47" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H47" s="140" t="n">
         <v>17.8</v>
       </c>
-      <c r="I47" s="149" t="n">
+      <c r="I47" s="140" t="n">
         <v>17.8</v>
       </c>
-      <c r="J47" s="149" t="n">
+      <c r="J47" s="140" t="n">
         <v>17.8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="74" t="n">
+      <c r="A48" s="75" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="146" t="n">
+      <c r="B48" s="137" t="n">
         <v>60000000108300</v>
       </c>
-      <c r="C48" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D48" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="E48" s="148" t="s">
-        <v>305</v>
-      </c>
-      <c r="F48" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G48" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H48" s="149" t="n">
+      <c r="C48" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="139" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G48" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="I48" s="149" t="n">
+      <c r="I48" s="140" t="n">
         <v>13.8</v>
       </c>
-      <c r="J48" s="149" t="n">
+      <c r="J48" s="140" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="74" t="n">
+      <c r="A49" s="75" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="146" t="n">
+      <c r="B49" s="137" t="n">
         <v>60000000031015</v>
       </c>
-      <c r="C49" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D49" s="147" t="s">
-        <v>284</v>
-      </c>
-      <c r="E49" s="148" t="s">
-        <v>306</v>
-      </c>
-      <c r="F49" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G49" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H49" s="149" t="n">
+      <c r="C49" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="F49" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G49" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H49" s="140" t="n">
         <v>19</v>
       </c>
-      <c r="I49" s="149" t="n">
+      <c r="I49" s="140" t="n">
         <v>16.8986</v>
       </c>
-      <c r="J49" s="149" t="n">
+      <c r="J49" s="140" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="74" t="n">
+      <c r="A50" s="75" t="n">
         <v>47</v>
       </c>
-      <c r="B50" s="146" t="n">
+      <c r="B50" s="137" t="n">
         <v>60000000031014</v>
       </c>
-      <c r="C50" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D50" s="147" t="s">
-        <v>284</v>
-      </c>
-      <c r="E50" s="148" t="s">
-        <v>307</v>
-      </c>
-      <c r="F50" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H50" s="149" t="n">
+      <c r="C50" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D50" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H50" s="140" t="n">
         <v>19</v>
       </c>
-      <c r="I50" s="149" t="n">
+      <c r="I50" s="140" t="n">
         <v>16.8986</v>
       </c>
-      <c r="J50" s="149" t="n">
+      <c r="J50" s="140" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="74" t="n">
+      <c r="A51" s="75" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="146" t="n">
+      <c r="B51" s="137" t="n">
         <v>60000000102100</v>
       </c>
-      <c r="C51" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D51" s="147" t="s">
-        <v>308</v>
-      </c>
-      <c r="E51" s="148" t="s">
-        <v>309</v>
-      </c>
-      <c r="F51" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G51" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H51" s="149" t="n">
+      <c r="C51" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="138" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="139" t="s">
+        <v>307</v>
+      </c>
+      <c r="F51" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51" s="140" t="n">
         <v>12</v>
       </c>
-      <c r="I51" s="149" t="n">
+      <c r="I51" s="140" t="n">
         <v>12</v>
       </c>
-      <c r="J51" s="149" t="n">
+      <c r="J51" s="140" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="74" t="n">
+      <c r="A52" s="75" t="n">
         <v>49</v>
       </c>
-      <c r="B52" s="146" t="n">
+      <c r="B52" s="137" t="n">
         <v>60000000102168</v>
       </c>
-      <c r="C52" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="147" t="s">
+      <c r="C52" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="138" t="s">
+        <v>306</v>
+      </c>
+      <c r="E52" s="139" t="s">
         <v>308</v>
       </c>
-      <c r="E52" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G52" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H52" s="149" t="n">
+      <c r="F52" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H52" s="140" t="n">
         <v>12</v>
       </c>
-      <c r="I52" s="149" t="n">
+      <c r="I52" s="140" t="n">
         <v>12</v>
       </c>
-      <c r="J52" s="149" t="n">
+      <c r="J52" s="140" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="74" t="n">
+      <c r="A53" s="75" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="146" t="n">
+      <c r="B53" s="137" t="n">
         <v>60000000112479</v>
       </c>
-      <c r="C53" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D53" s="147" t="s">
-        <v>308</v>
-      </c>
-      <c r="E53" s="148" t="s">
-        <v>311</v>
-      </c>
-      <c r="F53" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="G53" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="H53" s="149" t="n">
+      <c r="C53" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="138" t="s">
+        <v>306</v>
+      </c>
+      <c r="E53" s="139" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="H53" s="140" t="n">
         <v>12</v>
       </c>
-      <c r="I53" s="149" t="n">
+      <c r="I53" s="140" t="n">
         <v>12</v>
       </c>
-      <c r="J53" s="149" t="n">
+      <c r="J53" s="140" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Projects/GSKSG/Data/template.xlsx
+++ b/Projects/GSKSG/Data/template.xlsx
@@ -5,22 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="pharmacy2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="MSL List" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Pharmacy" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Supermarkets &amp; Hypermarkets" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="General Trade New" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Task Type Names" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="POSM List" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Survey" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Pricing Min -Max" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Task Type Names" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="POSM List" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Survey" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Pricing Min -Max" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="General Trade" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'MSL List'!$A$3:$Z$38</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Pricing Min -Max'!$A$1:$J$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Pricing Min -Max'!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +31,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="298">
   <si>
     <t xml:space="preserve">1st level</t>
   </si>
@@ -930,12 +930,6 @@
 '- Ignore stacking</t>
   </si>
   <si>
-    <t xml:space="preserve">General Trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Remark pricing communication - must with come with permanent price tag on each SKUs</t>
-  </si>
-  <si>
     <t xml:space="preserve">GT</t>
   </si>
   <si>
@@ -1151,6 +1145,28 @@
   <si>
     <t xml:space="preserve">GT PACK</t>
   </si>
+  <si>
+    <t xml:space="preserve">General Trade-Pain Shelf-Beauty Store-A,
+General Trade-Pain Shelf-Beauty Store-B,
+General Trade-Pain Shelf-Beauty Store-C,
+General Trade-Pain Shelf-CMH-A,
+General Trade-Pain Shelf-CMH-B,
+General Trade-Pain Shelf-CMH-C,
+General Trade-Pain Shelf-Mini\Pro\Other-A,
+General Trade-Pain Shelf-Mini\Pro\Other-B,
+General Trade-Pain Shelf-Mini\Pro\Other-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Trade-Oral Shelf-Beauty Store-A,
+General Trade-Oral Shelf-Beauty Store-B,
+General Trade-Oral Shelf-Beauty Store-C,
+General Trade-Oral Shelf-CMH-A,
+General Trade-Oral Shelf-CMH-B,
+General Trade-Oral Shelf-CMH-C,
+General Trade-Oral Shelf-Mini\Pro\Other-A,
+General Trade-Oral Shelf-Mini\Pro\Other-B,
+General Trade-Oral Shelf-Mini\Pro\Other-C</t>
+  </si>
 </sst>
 </file>
 
@@ -1187,13 +1203,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <i val="true"/>
@@ -1260,6 +1269,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -1413,7 +1429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1573,13 +1589,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -1627,12 +1636,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1641,15 +1650,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1661,23 +1670,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1685,19 +1698,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1705,15 +1710,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1721,51 +1734,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1773,39 +1786,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1817,7 +1826,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1869,11 +1878,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1881,7 +1890,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1889,7 +1898,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1909,19 +1918,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1933,132 +1942,60 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2089,15 +2026,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2105,11 +2042,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2173,7 +2110,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2249,9 +2186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2882520</xdr:colOff>
+      <xdr:colOff>2882160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2261,7 +2198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7311600" cy="6355800"/>
+          <a:ext cx="7339680" cy="6355440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,9 +2231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2882520</xdr:colOff>
+      <xdr:colOff>2882160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2306,7 +2243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7311600" cy="6355800"/>
+          <a:ext cx="7339680" cy="6355440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2346,25 +2283,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="5" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="18" min="15" style="5" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="5" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="5" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="15" style="5" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="5" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="6" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1023" min="27" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="6" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1023" min="27" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="13.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4415,22 +4352,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="45" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="45" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="45" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="45" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="45" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="46" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="46" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="46" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="45" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="45" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="45" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="45" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="45" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="46" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="46" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="46" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="46" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="46" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="46" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="46" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="46" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="47" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="47" width="9.21052631578947"/>
   </cols>
@@ -45389,17 +45326,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="18" min="12" style="5" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="12" style="5" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="6" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="13.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -46296,23 +46233,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="70" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="70" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="70" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="71" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="70" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="71" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="70" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="72" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="73" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="13" style="73" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="73.3765182186235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="74" width="43.2753036437247"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="23" min="13" style="73" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="74" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47260,603 +47197,141 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="X7" activeCellId="0" sqref="X7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="71" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="70" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="72" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="73" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="73" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="73" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="73" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="73" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="73" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="73" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="73" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="73.3765182186235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="74" width="43.2753036437247"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="75" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>23</v>
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="90" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="92" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="92" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="91" t="s">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="94" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="96" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="96" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="98" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="83"/>
+      <c r="B3" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="95" t="s">
+      <c r="A4" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" s="83"/>
+      <c r="B5" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="J5" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="98" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="83"/>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y6" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z6" s="83"/>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="96" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="96" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="98" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y7" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z7" s="83"/>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="102" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="92" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="92" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="94" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L8" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z8" s="79"/>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="101.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="104" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="104" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="105" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y9" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z9" s="83"/>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y10" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z10" s="83"/>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y11" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z11" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>226</v>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -47872,141 +47347,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="107" t="s">
-        <v>27</v>
-      </c>
+      <c r="A1" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="91"/>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="108" t="s">
-        <v>221</v>
+    <row r="2" s="72" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>213</v>
+      <c r="A3" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="108" t="s">
-        <v>229</v>
+      <c r="B4" s="90" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>63</v>
+      <c r="A5" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="108" t="s">
-        <v>91</v>
-      </c>
+      <c r="B6" s="90"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>85</v>
-      </c>
+      <c r="A7" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="90"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="108" t="s">
-        <v>128</v>
-      </c>
+      <c r="A8" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="90"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="108" t="s">
-        <v>132</v>
-      </c>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108" t="s">
-        <v>98</v>
-      </c>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108" t="s">
-        <v>108</v>
-      </c>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108" t="s">
-        <v>230</v>
-      </c>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -48022,130 +47459,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="109" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="109"/>
-    </row>
-    <row r="2" s="72" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="108" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="108"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="108"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="108"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
@@ -48153,114 +47478,114 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="D1" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="G1" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="113" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="113" t="s">
+      <c r="H1" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="I1" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="J1" s="96" t="s">
         <v>238</v>
-      </c>
-      <c r="I1" s="113" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" s="114" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="F2" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="108" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="108"/>
-      <c r="J2" s="117"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="D3" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="G3" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="108" t="s">
+      <c r="H3" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="117"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="99"/>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="119" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="120" t="n">
+      <c r="D4" s="102" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
+      <c r="E4" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -48278,7 +47603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FF4472C4"/>
@@ -48293,10 +47618,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.53441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.4251012145749"/>
@@ -48305,1658 +47630,1658 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="E1" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="124" t="s">
+      <c r="F1" s="106" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="G1" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="H1" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="I1" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="J1" s="105" t="s">
         <v>258</v>
-      </c>
-      <c r="I1" s="123" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="123" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="125" t="n">
+      <c r="A4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="107" t="n">
         <v>60000000106314</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="108" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H4" s="128" t="n">
+      <c r="H4" s="110" t="n">
         <v>9.3</v>
       </c>
-      <c r="I4" s="128" t="n">
+      <c r="I4" s="110" t="n">
         <v>9.021</v>
       </c>
-      <c r="J4" s="128" t="n">
+      <c r="J4" s="110" t="n">
         <v>9.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="108" t="n">
+      <c r="A5" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="125" t="n">
+      <c r="B5" s="107" t="n">
         <v>60000000101327</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="126" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="127" t="s">
+      <c r="D5" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H5" s="128" t="n">
+      <c r="F5" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="110" t="n">
         <v>9.1</v>
       </c>
-      <c r="I5" s="128" t="n">
+      <c r="I5" s="110" t="n">
         <v>8.827</v>
       </c>
-      <c r="J5" s="128" t="n">
+      <c r="J5" s="110" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="108" t="n">
+      <c r="A6" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="125" t="n">
+      <c r="B6" s="107" t="n">
         <v>1113</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="126" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="127" t="s">
+      <c r="D6" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H6" s="128" t="n">
+      <c r="F6" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="110" t="n">
         <v>7.65</v>
       </c>
-      <c r="I6" s="128" t="n">
+      <c r="I6" s="110" t="n">
         <v>7.4205</v>
       </c>
-      <c r="J6" s="128" t="n">
+      <c r="J6" s="110" t="n">
         <v>7.65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="108" t="n">
+      <c r="A7" s="90" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="125" t="n">
+      <c r="B7" s="107" t="n">
         <v>1114</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="126" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H7" s="128" t="n">
+      <c r="F7" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="110" t="n">
         <v>8.65</v>
       </c>
-      <c r="I7" s="128" t="n">
+      <c r="I7" s="110" t="n">
         <v>8.3905</v>
       </c>
-      <c r="J7" s="128" t="n">
+      <c r="J7" s="110" t="n">
         <v>8.65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="108" t="n">
+      <c r="A8" s="90" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="125" t="n">
+      <c r="B8" s="107" t="n">
         <v>512204</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="126" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="127" t="s">
+      <c r="D8" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" s="128" t="n">
+      <c r="F8" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="110" t="n">
         <v>6.65</v>
       </c>
-      <c r="I8" s="128" t="n">
+      <c r="I8" s="110" t="n">
         <v>6.4505</v>
       </c>
-      <c r="J8" s="128" t="n">
+      <c r="J8" s="110" t="n">
         <v>6.65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="108" t="n">
+      <c r="A9" s="90" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="125" t="n">
+      <c r="B9" s="107" t="n">
         <v>11000000004703</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="126" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="127" t="s">
+      <c r="D9" s="108" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="128" t="n">
+      <c r="F9" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="110" t="n">
         <v>10.2</v>
       </c>
-      <c r="I9" s="128" t="n">
+      <c r="I9" s="110" t="n">
         <v>9.894</v>
       </c>
-      <c r="J9" s="128" t="n">
+      <c r="J9" s="110" t="n">
         <v>10.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="108" t="n">
+      <c r="A10" s="90" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="125" t="n">
+      <c r="B10" s="107" t="n">
         <v>9585185</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="126" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="128" t="n">
+      <c r="F10" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="110" t="n">
         <v>8.3</v>
       </c>
-      <c r="I10" s="128" t="n">
+      <c r="I10" s="110" t="n">
         <v>8.051</v>
       </c>
-      <c r="J10" s="128" t="n">
+      <c r="J10" s="110" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="108" t="n">
+      <c r="A11" s="90" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="125" t="n">
+      <c r="B11" s="107" t="n">
         <v>512556</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="126" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="127" t="s">
+      <c r="D11" s="108" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G11" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H11" s="128" t="n">
+      <c r="F11" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="110" t="n">
         <v>8.3</v>
       </c>
-      <c r="I11" s="128" t="n">
+      <c r="I11" s="110" t="n">
         <v>8.051</v>
       </c>
-      <c r="J11" s="128" t="n">
+      <c r="J11" s="110" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="108" t="n">
+      <c r="A12" s="90" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="125" t="n">
+      <c r="B12" s="107" t="n">
         <v>512563</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="126" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="127" t="s">
+      <c r="D12" s="108" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H12" s="128" t="n">
+      <c r="F12" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="110" t="n">
         <v>48.2</v>
       </c>
-      <c r="I12" s="128" t="n">
+      <c r="I12" s="110" t="n">
         <v>46.754</v>
       </c>
-      <c r="J12" s="128" t="n">
+      <c r="J12" s="110" t="n">
         <v>48.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="108" t="n">
+      <c r="A13" s="90" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="125" t="n">
+      <c r="B13" s="107" t="n">
         <v>2162010585</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="126" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H13" s="128" t="n">
+      <c r="F13" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="110" t="n">
         <v>6.2</v>
       </c>
-      <c r="I13" s="128" t="n">
+      <c r="I13" s="110" t="n">
         <v>6.014</v>
       </c>
-      <c r="J13" s="128" t="n">
+      <c r="J13" s="110" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="108" t="n">
+      <c r="A14" s="90" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="125" t="n">
+      <c r="B14" s="107" t="n">
         <v>512013</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="126" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="127" t="s">
+      <c r="D14" s="108" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="128" t="n">
+      <c r="F14" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="110" t="n">
         <v>8.3</v>
       </c>
-      <c r="I14" s="128" t="n">
+      <c r="I14" s="110" t="n">
         <v>8.051</v>
       </c>
-      <c r="J14" s="128" t="n">
+      <c r="J14" s="110" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="108" t="n">
+      <c r="A15" s="90" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="125" t="n">
+      <c r="B15" s="107" t="n">
         <v>9586239</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="126" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="127" t="s">
+      <c r="D15" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H15" s="128" t="n">
+      <c r="F15" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="110" t="n">
         <v>7.3</v>
       </c>
-      <c r="I15" s="128" t="n">
+      <c r="I15" s="110" t="n">
         <v>7.081</v>
       </c>
-      <c r="J15" s="128" t="n">
+      <c r="J15" s="110" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="108" t="n">
+      <c r="A16" s="90" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="125" t="n">
+      <c r="B16" s="107" t="n">
         <v>512471</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="126" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="127" t="s">
+      <c r="D16" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" s="128" t="n">
+      <c r="F16" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="110" t="n">
         <v>7.2</v>
       </c>
-      <c r="I16" s="128" t="n">
+      <c r="I16" s="110" t="n">
         <v>6.984</v>
       </c>
-      <c r="J16" s="128" t="n">
+      <c r="J16" s="110" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="108" t="n">
+      <c r="A17" s="90" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="125" t="n">
+      <c r="B17" s="107" t="n">
         <v>512495</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="126" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="127" t="s">
+      <c r="D17" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="128" t="n">
+      <c r="F17" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="110" t="n">
         <v>41.9</v>
       </c>
-      <c r="I17" s="128" t="n">
+      <c r="I17" s="110" t="n">
         <v>40.643</v>
       </c>
-      <c r="J17" s="128" t="n">
+      <c r="J17" s="110" t="n">
         <v>41.9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="108" t="n">
+      <c r="A18" s="90" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="125" t="n">
+      <c r="B18" s="107" t="n">
         <v>7091747</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="126" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="127" t="s">
+      <c r="D18" s="108" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G18" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" s="128" t="n">
+      <c r="F18" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="110" t="n">
         <v>9.1</v>
       </c>
-      <c r="I18" s="128" t="n">
+      <c r="I18" s="110" t="n">
         <v>8.827</v>
       </c>
-      <c r="J18" s="128" t="n">
+      <c r="J18" s="110" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="108" t="n">
+      <c r="A19" s="90" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="125" t="n">
+      <c r="B19" s="107" t="n">
         <v>9592274</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H19" s="128" t="n">
+      <c r="F19" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="110" t="n">
         <v>7.25</v>
       </c>
-      <c r="I19" s="128" t="n">
+      <c r="I19" s="110" t="n">
         <v>7.0325</v>
       </c>
-      <c r="J19" s="128" t="n">
+      <c r="J19" s="110" t="n">
         <v>7.25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="108" t="n">
+      <c r="A20" s="90" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="125" t="n">
+      <c r="B20" s="107" t="n">
         <v>124685</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" s="127" t="s">
+      <c r="D20" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H20" s="128" t="n">
+      <c r="F20" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="110" t="n">
         <v>12.8</v>
       </c>
-      <c r="I20" s="128" t="n">
+      <c r="I20" s="110" t="n">
         <v>9.6</v>
       </c>
-      <c r="J20" s="128" t="n">
+      <c r="J20" s="110" t="n">
         <v>12.8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="108" t="n">
+      <c r="A21" s="90" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="125" t="n">
+      <c r="B21" s="107" t="n">
         <v>60000000109281</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="E21" s="127" t="s">
+      <c r="D21" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H21" s="128" t="n">
+      <c r="F21" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" s="110" t="n">
         <v>12.8</v>
       </c>
-      <c r="I21" s="128" t="n">
+      <c r="I21" s="110" t="n">
         <v>9.6</v>
       </c>
-      <c r="J21" s="128" t="n">
+      <c r="J21" s="110" t="n">
         <v>12.8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="108" t="n">
+      <c r="A22" s="90" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="125" t="n">
+      <c r="B22" s="107" t="n">
         <v>241107</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="126" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="127" t="s">
+      <c r="D22" s="108" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="F22" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H22" s="128" t="n">
+      <c r="F22" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" s="110" t="n">
         <v>8.5</v>
       </c>
-      <c r="I22" s="128" t="n">
+      <c r="I22" s="110" t="n">
         <v>6.75</v>
       </c>
-      <c r="J22" s="128" t="n">
+      <c r="J22" s="110" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="108" t="n">
+      <c r="A23" s="90" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="125" t="n">
+      <c r="B23" s="107" t="n">
         <v>60000000031021</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="126" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="127" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H23" s="128" t="n">
+      <c r="D23" s="108" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="110" t="n">
         <v>12.9</v>
       </c>
-      <c r="I23" s="128" t="n">
+      <c r="I23" s="110" t="n">
         <v>12.9</v>
       </c>
-      <c r="J23" s="128" t="n">
+      <c r="J23" s="110" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="108" t="n">
+      <c r="A24" s="90" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="125" t="n">
+      <c r="B24" s="107" t="n">
         <v>60000000031022</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="108" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="F24" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H24" s="128" t="n">
+      <c r="F24" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="110" t="n">
         <v>12.9</v>
       </c>
-      <c r="I24" s="128" t="n">
+      <c r="I24" s="110" t="n">
         <v>12.9</v>
       </c>
-      <c r="J24" s="128" t="n">
+      <c r="J24" s="110" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="108" t="n">
+      <c r="A25" s="90" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="125" t="n">
+      <c r="B25" s="107" t="n">
         <v>230842</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="126" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="127" t="s">
+      <c r="D25" s="108" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="128" t="n">
+      <c r="F25" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="110" t="n">
         <v>8.5</v>
       </c>
-      <c r="I25" s="128" t="n">
+      <c r="I25" s="110" t="n">
         <v>6.75</v>
       </c>
-      <c r="J25" s="128" t="n">
+      <c r="J25" s="110" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="108" t="n">
+      <c r="A26" s="90" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="125" t="n">
+      <c r="B26" s="107" t="n">
         <v>60000000029239</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="127" t="s">
+      <c r="D26" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G26" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H26" s="128" t="n">
+      <c r="F26" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="110" t="n">
         <v>7.2</v>
       </c>
-      <c r="I26" s="128" t="n">
+      <c r="I26" s="110" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J26" s="128" t="n">
+      <c r="J26" s="110" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="108" t="n">
+      <c r="A27" s="90" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="125" t="n">
+      <c r="B27" s="107" t="n">
         <v>60000000031395</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="E27" s="127" t="s">
+      <c r="D27" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H27" s="128" t="n">
+      <c r="F27" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="110" t="n">
         <v>7.2</v>
       </c>
-      <c r="I27" s="128" t="n">
+      <c r="I27" s="110" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J27" s="128" t="n">
+      <c r="J27" s="110" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="108" t="n">
+      <c r="A28" s="90" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="125" t="n">
+      <c r="B28" s="107" t="n">
         <v>60000000031042</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="127" t="s">
+      <c r="D28" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G28" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="128" t="n">
+      <c r="F28" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="110" t="n">
         <v>7.2</v>
       </c>
-      <c r="I28" s="128" t="n">
+      <c r="I28" s="110" t="n">
         <v>4.1976</v>
       </c>
-      <c r="J28" s="128" t="n">
+      <c r="J28" s="110" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="108" t="n">
+      <c r="A29" s="90" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="125" t="n">
+      <c r="B29" s="107" t="n">
         <v>60000000108158</v>
       </c>
-      <c r="C29" s="126" t="s">
+      <c r="C29" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="127" t="s">
+      <c r="D29" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G29" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="128" t="n">
+      <c r="F29" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" s="110" t="n">
         <v>7.5</v>
       </c>
-      <c r="I29" s="128" t="n">
+      <c r="I29" s="110" t="n">
         <v>4.3725</v>
       </c>
-      <c r="J29" s="128" t="n">
+      <c r="J29" s="110" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="108" t="n">
+      <c r="A30" s="90" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="125" t="n">
+      <c r="B30" s="107" t="n">
         <v>60000000029240</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G30" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H30" s="128" t="n">
+      <c r="D30" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" s="110" t="n">
         <v>7.5</v>
       </c>
-      <c r="I30" s="128" t="n">
+      <c r="I30" s="110" t="n">
         <v>4.3725</v>
       </c>
-      <c r="J30" s="128" t="n">
+      <c r="J30" s="110" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="108" t="n">
+      <c r="A31" s="90" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="125" t="n">
+      <c r="B31" s="107" t="n">
         <v>240957</v>
       </c>
-      <c r="C31" s="126" t="s">
+      <c r="C31" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="126" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="127" t="s">
+      <c r="D31" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H31" s="128" t="n">
+      <c r="F31" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" s="110" t="n">
         <v>9.5</v>
       </c>
-      <c r="I31" s="128" t="n">
+      <c r="I31" s="110" t="n">
         <v>6.004</v>
       </c>
-      <c r="J31" s="128" t="n">
+      <c r="J31" s="110" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="108" t="n">
+      <c r="A32" s="90" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="125" t="n">
+      <c r="B32" s="107" t="n">
         <v>240476</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="126" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" s="127" t="s">
+      <c r="D32" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H32" s="128" t="n">
+      <c r="F32" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="110" t="n">
         <v>9.5</v>
       </c>
-      <c r="I32" s="128" t="n">
+      <c r="I32" s="110" t="n">
         <v>6.004</v>
       </c>
-      <c r="J32" s="128" t="n">
+      <c r="J32" s="110" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="108" t="n">
+      <c r="A33" s="90" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="125" t="n">
+      <c r="B33" s="107" t="n">
         <v>60000000109393</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="126" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="127" t="s">
+      <c r="D33" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H33" s="128" t="n">
+      <c r="F33" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="110" t="n">
         <v>8.9</v>
       </c>
-      <c r="I33" s="128" t="n">
+      <c r="I33" s="110" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J33" s="128" t="n">
+      <c r="J33" s="110" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="108" t="n">
+      <c r="A34" s="90" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="125" t="n">
+      <c r="B34" s="107" t="n">
         <v>60000000112310</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="126" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="127" t="s">
+      <c r="D34" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H34" s="128" t="n">
+      <c r="F34" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="110" t="n">
         <v>8.9</v>
       </c>
-      <c r="I34" s="128" t="n">
+      <c r="I34" s="110" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J34" s="128" t="n">
+      <c r="J34" s="110" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="108" t="n">
+      <c r="A35" s="90" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="125" t="n">
+      <c r="B35" s="107" t="n">
         <v>60000000109392</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="126" t="s">
-        <v>282</v>
-      </c>
-      <c r="E35" s="127" t="s">
+      <c r="D35" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G35" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H35" s="128" t="n">
+      <c r="F35" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" s="110" t="n">
         <v>8.9</v>
       </c>
-      <c r="I35" s="128" t="n">
+      <c r="I35" s="110" t="n">
         <v>7.9032</v>
       </c>
-      <c r="J35" s="128" t="n">
+      <c r="J35" s="110" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="108" t="n">
+      <c r="A36" s="90" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="125" t="n">
+      <c r="B36" s="107" t="n">
         <v>60000000108294</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="127" t="s">
+      <c r="D36" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G36" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H36" s="128" t="n">
+      <c r="F36" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="110" t="n">
         <v>8.9</v>
       </c>
-      <c r="I36" s="128" t="n">
+      <c r="I36" s="110" t="n">
         <v>5.9986</v>
       </c>
-      <c r="J36" s="128" t="n">
+      <c r="J36" s="110" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="108" t="n">
+      <c r="A37" s="90" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="125" t="n">
+      <c r="B37" s="107" t="n">
         <v>60000000108295</v>
       </c>
-      <c r="C37" s="126" t="s">
+      <c r="C37" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="E37" s="127" t="s">
+      <c r="D37" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="128" t="n">
+      <c r="F37" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="110" t="n">
         <v>9.5</v>
       </c>
-      <c r="I37" s="128" t="n">
+      <c r="I37" s="110" t="n">
         <v>6.004</v>
       </c>
-      <c r="J37" s="128" t="n">
+      <c r="J37" s="110" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="108" t="n">
+      <c r="A38" s="90" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="125" t="n">
+      <c r="B38" s="107" t="n">
         <v>60000000108332</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" s="127" t="s">
+      <c r="D38" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="126" t="s">
-        <v>262</v>
-      </c>
-      <c r="G38" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="H38" s="128" t="n">
+      <c r="F38" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="110" t="n">
         <v>8.9</v>
       </c>
-      <c r="I38" s="128" t="n">
+      <c r="I38" s="110" t="n">
         <v>5.9986</v>
       </c>
-      <c r="J38" s="128" t="n">
+      <c r="J38" s="110" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="108" t="n">
+      <c r="A39" s="90" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="129" t="n">
+      <c r="B39" s="111" t="n">
         <v>60000000112403</v>
       </c>
-      <c r="C39" s="130" t="s">
+      <c r="C39" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="130" t="s">
+      <c r="D39" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E39" s="131" t="s">
-        <v>284</v>
-      </c>
-      <c r="F39" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G39" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H39" s="132" t="n">
+      <c r="G39" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="I39" s="132" t="n">
+      <c r="I39" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="J39" s="132" t="n">
+      <c r="J39" s="114" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="108" t="n">
+      <c r="A40" s="90" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="129" t="n">
+      <c r="B40" s="111" t="n">
         <v>60000000111279</v>
       </c>
-      <c r="C40" s="130" t="s">
+      <c r="C40" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="130" t="s">
+      <c r="D40" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="131" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G40" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H40" s="132" t="n">
+      <c r="G40" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="I40" s="132" t="n">
+      <c r="I40" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="J40" s="132" t="n">
+      <c r="J40" s="114" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="108" t="n">
+      <c r="A41" s="90" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="129" t="n">
+      <c r="B41" s="111" t="n">
         <v>60000000111938</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="130" t="s">
+      <c r="D41" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="131" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" s="132" t="n">
+      <c r="G41" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" s="114" t="n">
         <v>17.8</v>
       </c>
-      <c r="I41" s="132" t="n">
+      <c r="I41" s="114" t="n">
         <v>17.8</v>
       </c>
-      <c r="J41" s="132" t="n">
+      <c r="J41" s="114" t="n">
         <v>17.8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="108" t="n">
+      <c r="A42" s="90" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="129" t="n">
+      <c r="B42" s="111" t="n">
         <v>60000000111317</v>
       </c>
-      <c r="C42" s="130" t="s">
+      <c r="C42" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="130" t="s">
+      <c r="D42" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="131" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H42" s="132" t="n">
+      <c r="G42" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H42" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="I42" s="132" t="n">
+      <c r="I42" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="J42" s="132" t="n">
+      <c r="J42" s="114" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="108" t="n">
+      <c r="A43" s="90" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="129" t="n">
+      <c r="B43" s="111" t="n">
         <v>60000000111939</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D43" s="130" t="s">
+      <c r="D43" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="F43" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E43" s="131" t="s">
-        <v>289</v>
-      </c>
-      <c r="F43" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G43" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H43" s="132" t="n">
+      <c r="G43" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H43" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="I43" s="132" t="n">
+      <c r="I43" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="J43" s="132" t="n">
+      <c r="J43" s="114" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="108" t="n">
+      <c r="A44" s="90" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="129" t="n">
+      <c r="B44" s="111" t="n">
         <v>60000000111822</v>
       </c>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="130" t="s">
+      <c r="D44" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="131" t="s">
-        <v>290</v>
-      </c>
-      <c r="F44" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G44" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H44" s="132" t="n">
+      <c r="G44" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="I44" s="132" t="n">
+      <c r="I44" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="J44" s="132" t="n">
+      <c r="J44" s="114" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="108" t="n">
+      <c r="A45" s="90" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="129" t="n">
+      <c r="B45" s="111" t="n">
         <v>60000000031002</v>
       </c>
-      <c r="C45" s="130" t="s">
+      <c r="C45" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="130" t="s">
+      <c r="D45" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" s="113" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E45" s="131" t="s">
-        <v>291</v>
-      </c>
-      <c r="F45" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G45" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H45" s="132" t="n">
+      <c r="G45" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H45" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="I45" s="132" t="n">
+      <c r="I45" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="J45" s="132" t="n">
+      <c r="J45" s="114" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="108" t="n">
+      <c r="A46" s="90" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="129" t="n">
+      <c r="B46" s="111" t="n">
         <v>60000000031004</v>
       </c>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="130" t="s">
+      <c r="D46" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="131" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G46" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H46" s="132" t="n">
+      <c r="G46" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="I46" s="132" t="n">
+      <c r="I46" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="J46" s="132" t="n">
+      <c r="J46" s="114" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="108" t="n">
+      <c r="A47" s="90" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="129" t="n">
+      <c r="B47" s="111" t="n">
         <v>60000000031003</v>
       </c>
-      <c r="C47" s="130" t="s">
+      <c r="C47" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="130" t="s">
+      <c r="D47" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" s="113" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E47" s="131" t="s">
-        <v>293</v>
-      </c>
-      <c r="F47" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H47" s="132" t="n">
+      <c r="G47" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H47" s="114" t="n">
         <v>17.8</v>
       </c>
-      <c r="I47" s="132" t="n">
+      <c r="I47" s="114" t="n">
         <v>17.8</v>
       </c>
-      <c r="J47" s="132" t="n">
+      <c r="J47" s="114" t="n">
         <v>17.8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="108" t="n">
+      <c r="A48" s="90" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="129" t="n">
+      <c r="B48" s="111" t="n">
         <v>60000000108300</v>
       </c>
-      <c r="C48" s="130" t="s">
+      <c r="C48" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="130" t="s">
+      <c r="D48" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="113" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="E48" s="131" t="s">
-        <v>294</v>
-      </c>
-      <c r="F48" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G48" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H48" s="132" t="n">
+      <c r="G48" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H48" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="I48" s="132" t="n">
+      <c r="I48" s="114" t="n">
         <v>13.8</v>
       </c>
-      <c r="J48" s="132" t="n">
+      <c r="J48" s="114" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="108" t="n">
+      <c r="A49" s="90" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="129" t="n">
+      <c r="B49" s="111" t="n">
         <v>60000000031015</v>
       </c>
-      <c r="C49" s="130" t="s">
+      <c r="C49" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="E49" s="131" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G49" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" s="132" t="n">
+      <c r="D49" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" s="113" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="114" t="n">
         <v>19</v>
       </c>
-      <c r="I49" s="132" t="n">
+      <c r="I49" s="114" t="n">
         <v>16.8986</v>
       </c>
-      <c r="J49" s="132" t="n">
+      <c r="J49" s="114" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="108" t="n">
+      <c r="A50" s="90" t="n">
         <v>47</v>
       </c>
-      <c r="B50" s="129" t="n">
+      <c r="B50" s="111" t="n">
         <v>60000000031014</v>
       </c>
-      <c r="C50" s="130" t="s">
+      <c r="C50" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" s="131" t="s">
-        <v>296</v>
-      </c>
-      <c r="F50" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G50" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H50" s="132" t="n">
+      <c r="D50" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="113" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H50" s="114" t="n">
         <v>19</v>
       </c>
-      <c r="I50" s="132" t="n">
+      <c r="I50" s="114" t="n">
         <v>16.8986</v>
       </c>
-      <c r="J50" s="132" t="n">
+      <c r="J50" s="114" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="108" t="n">
+      <c r="A51" s="90" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="129" t="n">
+      <c r="B51" s="111" t="n">
         <v>60000000102100</v>
       </c>
-      <c r="C51" s="130" t="s">
+      <c r="C51" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="130" t="s">
-        <v>297</v>
-      </c>
-      <c r="E51" s="131" t="s">
+      <c r="D51" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G51" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H51" s="132" t="n">
+      <c r="F51" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H51" s="114" t="n">
         <v>12</v>
       </c>
-      <c r="I51" s="132" t="n">
+      <c r="I51" s="114" t="n">
         <v>12</v>
       </c>
-      <c r="J51" s="132" t="n">
+      <c r="J51" s="114" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="108" t="n">
+      <c r="A52" s="90" t="n">
         <v>49</v>
       </c>
-      <c r="B52" s="129" t="n">
+      <c r="B52" s="111" t="n">
         <v>60000000102168</v>
       </c>
-      <c r="C52" s="130" t="s">
+      <c r="C52" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="130" t="s">
-        <v>297</v>
-      </c>
-      <c r="E52" s="131" t="s">
+      <c r="D52" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G52" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H52" s="132" t="n">
+      <c r="F52" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H52" s="114" t="n">
         <v>12</v>
       </c>
-      <c r="I52" s="132" t="n">
+      <c r="I52" s="114" t="n">
         <v>12</v>
       </c>
-      <c r="J52" s="132" t="n">
+      <c r="J52" s="114" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="108" t="n">
+      <c r="A53" s="90" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="129" t="n">
+      <c r="B53" s="111" t="n">
         <v>60000000112479</v>
       </c>
-      <c r="C53" s="130" t="s">
+      <c r="C53" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="130" t="s">
-        <v>297</v>
-      </c>
-      <c r="E53" s="131" t="s">
+      <c r="D53" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="G53" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="H53" s="132" t="n">
+      <c r="F53" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H53" s="114" t="n">
         <v>12</v>
       </c>
-      <c r="I53" s="132" t="n">
+      <c r="I53" s="114" t="n">
         <v>12</v>
       </c>
-      <c r="J53" s="132" t="n">
+      <c r="J53" s="114" t="n">
         <v>12</v>
       </c>
     </row>
@@ -49983,4 +49308,2331 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="9" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="30" t="n">
+        <v>9900000000012</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z11" s="26"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" s="26"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z13" s="26"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z14" s="26"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z15" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z16" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z17" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="Z18" s="6"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="9" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E20" s="13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="30" t="n">
+        <v>9900000000012</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+    </row>
+    <row r="22" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z26" s="26"/>
+    </row>
+    <row r="27" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="20"/>
+      <c r="O27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27" s="26"/>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z28" s="19"/>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="33"/>
+      <c r="O29" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z29" s="26"/>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z30" s="26"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z31" s="26"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="N32" s="20"/>
+      <c r="O32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z32" s="26"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="33"/>
+      <c r="O33" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z33" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMJ33" s="0"/>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="O34" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="T34" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z34" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMJ34" s="0"/>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z35" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AMJ35" s="0"/>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="Z36" s="6"/>
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" s="9" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E38" s="13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K38" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z38" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="W33:W35"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>